--- a/data/hotels_by_city/Houston/Houston_shard_231.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_231.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d107863-Reviews-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>417</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Extended-Stay-America-Houston-Westchase-Westheimer.h84794.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1116 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r593295887-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107863</t>
+  </si>
+  <si>
+    <t>593295887</t>
+  </si>
+  <si>
+    <t>07/05/2018</t>
+  </si>
+  <si>
+    <t>Perfect place to rest after a business trip</t>
+  </si>
+  <si>
+    <t>I wasn't familiar with the area but after a couple days of talking to the staff i felt like i had been here a year after consulting with the manager Victoria and front desk clerk desire. They made my stay more comfortable than any of my other business trips i'll definitely stay here every venture to texas. the amenities were all in working order and the room was great with a beautiful view. One thing i don't like about a business is when excuses are given and i can honestly say this hotel staff runs a nice program and there were no excuses needed. However they could use more kitchen utensils lol' maybe it was just because they were fully booked you never know, but great establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>I wasn't familiar with the area but after a couple days of talking to the staff i felt like i had been here a year after consulting with the manager Victoria and front desk clerk desire. They made my stay more comfortable than any of my other business trips i'll definitely stay here every venture to texas. the amenities were all in working order and the room was great with a beautiful view. One thing i don't like about a business is when excuses are given and i can honestly say this hotel staff runs a nice program and there were no excuses needed. However they could use more kitchen utensils lol' maybe it was just because they were fully booked you never know, but great establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r573287745-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>573287745</t>
+  </si>
+  <si>
+    <t>04/14/2018</t>
+  </si>
+  <si>
+    <t>The concierge service are very professional</t>
+  </si>
+  <si>
+    <t>The hotel location instead of perfect area of time I enjoyed the rooms that are spacious and nice furnish kitchen the cleaning staff are very proficient at keeping the rooms clean I like the fact that they have a Washateria on the property for your convenience as well as a fitness center overall I enjoyed my stay at this Extended Stay of America off of WestheimerMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>The hotel location instead of perfect area of time I enjoyed the rooms that are spacious and nice furnish kitchen the cleaning staff are very proficient at keeping the rooms clean I like the fact that they have a Washateria on the property for your convenience as well as a fitness center overall I enjoyed my stay at this Extended Stay of America off of WestheimerMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r571268331-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571268331</t>
+  </si>
+  <si>
+    <t>04/05/2018</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Helpful receptionist very hands on if there is any problem super charismatic makes you feel right at home . Highly Recommend this place for anyone needing somewhere to stay . . I give it 5 stars . Thank you hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Helpful receptionist very hands on if there is any problem super charismatic makes you feel right at home . Highly Recommend this place for anyone needing somewhere to stay . . I give it 5 stars . Thank you hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r571263558-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571263558</t>
+  </si>
+  <si>
+    <t>Excellent!</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay! Staff was really friendly, room was clean lobby was really clean I love how it’s on westheimer it’s a Main Street in Houston so everything is close by lots of restaurants. Definitely will be coming back!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2018</t>
+  </si>
+  <si>
+    <t>I really enjoyed my stay! Staff was really friendly, room was clean lobby was really clean I love how it’s on westheimer it’s a Main Street in Houston so everything is close by lots of restaurants. Definitely will be coming back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r568202489-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>568202489</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Very good and safe hotel</t>
+  </si>
+  <si>
+    <t>Nice hotel both for business and pleasure.i would also recommend to my friends coming in for the upcoming OTC- oil and Gas conference in April. We will all stay here. The Location is good and centralized. The Hotel is safe tooMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel both for business and pleasure.i would also recommend to my friends coming in for the upcoming OTC- oil and Gas conference in April. We will all stay here. The Location is good and centralized. The Hotel is safe tooMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r566919227-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566919227</t>
+  </si>
+  <si>
+    <t>03/16/2018</t>
+  </si>
+  <si>
+    <t>So worth it!!</t>
+  </si>
+  <si>
+    <t>Worth every penny!! Everyone so nice. Victoria gave me and my wife the best welcoming and very informative with things to do while visiting. She knew her stuff!  We had a blast with our stay. Can not wait to come back.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2018</t>
+  </si>
+  <si>
+    <t>Worth every penny!! Everyone so nice. Victoria gave me and my wife the best welcoming and very informative with things to do while visiting. She knew her stuff!  We had a blast with our stay. Can not wait to come back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r566654699-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566654699</t>
+  </si>
+  <si>
+    <t>03/15/2018</t>
+  </si>
+  <si>
+    <t>Nice for the budget oriented.</t>
+  </si>
+  <si>
+    <t>Walking your room in the first time, there is a odd smell in the air. But if you stay long enough the smell seems to disappear. The room itself was pretty nice. Dated, but still quaint. Bed and sofa bed was soft. Everything was pretty clean. I still don't trust the floor, so I kept my shoes on. AC had a musty-ish smell when it starts but that went away after a bit.Bathroom was clean, thank god. Water was working, so a nice, hot shower. Only time I did take off my shoes.Now amenities, not much but that was not surprising for a budget place. Wi-fi leaves alot to be desired. Everything was working properly. So overall, a nice place for the money. Would come back. I just recommend cleaning the carpet better. Especially around the AC unit.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2018</t>
+  </si>
+  <si>
+    <t>Walking your room in the first time, there is a odd smell in the air. But if you stay long enough the smell seems to disappear. The room itself was pretty nice. Dated, but still quaint. Bed and sofa bed was soft. Everything was pretty clean. I still don't trust the floor, so I kept my shoes on. AC had a musty-ish smell when it starts but that went away after a bit.Bathroom was clean, thank god. Water was working, so a nice, hot shower. Only time I did take off my shoes.Now amenities, not much but that was not surprising for a budget place. Wi-fi leaves alot to be desired. Everything was working properly. So overall, a nice place for the money. Would come back. I just recommend cleaning the carpet better. Especially around the AC unit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r566130416-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566130416</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Basic at Best</t>
+  </si>
+  <si>
+    <t>Stayed there for four nights.  Everything looks (and is) very old.  Front lobby is dark and a little depressing.  Elevator and hallways have a definite smoke smell to them.  The room is very basic, but everything did work.  The breakfast leaves a lot to be desired.  It consisted of a couple pre-packaged muffins and some breakfast bars.  Also, there was never any coffee in any of the three containers.  The lone saving grace is that the room was quiet during my stay so at least I was able to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2018</t>
+  </si>
+  <si>
+    <t>Stayed there for four nights.  Everything looks (and is) very old.  Front lobby is dark and a little depressing.  Elevator and hallways have a definite smoke smell to them.  The room is very basic, but everything did work.  The breakfast leaves a lot to be desired.  It consisted of a couple pre-packaged muffins and some breakfast bars.  Also, there was never any coffee in any of the three containers.  The lone saving grace is that the room was quiet during my stay so at least I was able to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r563621122-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563621122</t>
+  </si>
+  <si>
+    <t>03/01/2018</t>
+  </si>
+  <si>
+    <t>Literally Stay Anywhere Else</t>
+  </si>
+  <si>
+    <t>If you enjoy mildewed hallways, constant smell of weed everywhere, side doors propped open at night letting in strangers, partying until 4AM and no one ever at the front desk, well then this is the place for you.I really enjoyed a location with a kitchen with literally not a single utensil, plate, bowl, rag, towel etc in it.  It made it very convenient to cook.  Oh and of course the front desk doesn't even have half the things you need if you go down and ask.  Don't be a fool and think you actually need these things in a kitchenette. This place is an utter joke.I highly advise to spend your hard earned money elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 3, 2018</t>
+  </si>
+  <si>
+    <t>If you enjoy mildewed hallways, constant smell of weed everywhere, side doors propped open at night letting in strangers, partying until 4AM and no one ever at the front desk, well then this is the place for you.I really enjoyed a location with a kitchen with literally not a single utensil, plate, bowl, rag, towel etc in it.  It made it very convenient to cook.  Oh and of course the front desk doesn't even have half the things you need if you go down and ask.  Don't be a fool and think you actually need these things in a kitchenette. This place is an utter joke.I highly advise to spend your hard earned money elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r538909168-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>538909168</t>
+  </si>
+  <si>
+    <t>11/06/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay America - Westchase</t>
+  </si>
+  <si>
+    <t>Hallway always stunk of cigarette smoke. Excessive noise that lasted to 2-3 o'clock am that was not handled by staff when complaint was made on several occasions.. Elevator out of order for several days. Credit card charged without any advisement or agreement from card holder when early checkout was arranged.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Hallway always stunk of cigarette smoke. Excessive noise that lasted to 2-3 o'clock am that was not handled by staff when complaint was made on several occasions.. Elevator out of order for several days. Credit card charged without any advisement or agreement from card holder when early checkout was arranged.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r505682962-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>505682962</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Where's my money?</t>
+  </si>
+  <si>
+    <t>There was a $100 hold on my card for Incidentals from my stay on the night of the 18th of July.  Six days later and Extended Stay still has my funds which is now causing other problems for me.  I want my money back.  The room itself was everything it should be and I would normally recommend for everyone.  Not this time.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>There was a $100 hold on my card for Incidentals from my stay on the night of the 18th of July.  Six days later and Extended Stay still has my funds which is now causing other problems for me.  I want my money back.  The room itself was everything it should be and I would normally recommend for everyone.  Not this time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r503381481-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>503381481</t>
+  </si>
+  <si>
+    <t>07/18/2017</t>
+  </si>
+  <si>
+    <t>Mini visit</t>
+  </si>
+  <si>
+    <t>We had to wait to check in because minor problems in The staff was friendly. THe room was great for the price and location to other venues. Overall we had a great stay. THe breakfast was quick and fast..MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>We had to wait to check in because minor problems in The staff was friendly. THe room was great for the price and location to other venues. Overall we had a great stay. THe breakfast was quick and fast..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r476980766-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476980766</t>
+  </si>
+  <si>
+    <t>04/18/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls weekend </t>
+  </si>
+  <si>
+    <t>Was really nervous about this place bcuz of past reviews but when I got there &amp; met the staff....i felt better....they were very friendly &amp; helpful...check in was quick &amp; easy...rooms were nice &amp; clean....great price for the area &amp; walking distance from the galleria mall.....i think this place will be my spot when I visit houston againMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2017</t>
+  </si>
+  <si>
+    <t>Was really nervous about this place bcuz of past reviews but when I got there &amp; met the staff....i felt better....they were very friendly &amp; helpful...check in was quick &amp; easy...rooms were nice &amp; clean....great price for the area &amp; walking distance from the galleria mall.....i think this place will be my spot when I visit houston againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r454555620-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454555620</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Budget hotel but lot of issues</t>
+  </si>
+  <si>
+    <t>I was checked in late night and there was no warm welcome. Staff felt as if I disturbed their sleep. Not even a bottle of water being served and I was asked go out and buy one myself. Had to drink tap water that night which caused me throat pain and cough + fever. I had to go on leave for 2 days in first week of my new project due to that. My clients unhappy. Rooms were smelling full of cigarette smoke which increases when you turn on heater/cooler. It remained so for 2 days, may be even after that, but I got used to it. Kitchen will be there but no utensils. I had to request front desk after that I got them next day because I was told that they were being used by other rooms. So, not every room has their own utensils. These utensils were so oily, dusty. But I was offered a diswashing liquid sachet to clean myself. Laundry: Washers are there but dryers were not working. Though I was helped with inhouse laundry dryer which they use to clean their bedsheets, towels, etc.I didn't see any Hospitality in any of the staff members except a house keeping lady. Breakfast: they say that breakfast included, but that was horrible than snacks. Just few muffins/biscuit wafers with coffee. Good things: Room interiors, furniture, internet, bathroom, TVMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>I was checked in late night and there was no warm welcome. Staff felt as if I disturbed their sleep. Not even a bottle of water being served and I was asked go out and buy one myself. Had to drink tap water that night which caused me throat pain and cough + fever. I had to go on leave for 2 days in first week of my new project due to that. My clients unhappy. Rooms were smelling full of cigarette smoke which increases when you turn on heater/cooler. It remained so for 2 days, may be even after that, but I got used to it. Kitchen will be there but no utensils. I had to request front desk after that I got them next day because I was told that they were being used by other rooms. So, not every room has their own utensils. These utensils were so oily, dusty. But I was offered a diswashing liquid sachet to clean myself. Laundry: Washers are there but dryers were not working. Though I was helped with inhouse laundry dryer which they use to clean their bedsheets, towels, etc.I didn't see any Hospitality in any of the staff members except a house keeping lady. Breakfast: they say that breakfast included, but that was horrible than snacks. Just few muffins/biscuit wafers with coffee. Good things: Room interiors, furniture, internet, bathroom, TVMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r453450080-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>453450080</t>
+  </si>
+  <si>
+    <t>01/19/2017</t>
+  </si>
+  <si>
+    <t>Missing employees</t>
+  </si>
+  <si>
+    <t>This was my first time at an Extended Stay in over 10 years, it was nice and quite...a little too quite. i stood at the front desk for about 6 mins waiting, and each time i passed the first desk never saw not one person. Not sure if she was watching the door on video or was busy in the back but she was not visible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded January 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2017</t>
+  </si>
+  <si>
+    <t>This was my first time at an Extended Stay in over 10 years, it was nice and quite...a little too quite. i stood at the front desk for about 6 mins waiting, and each time i passed the first desk never saw not one person. Not sure if she was watching the door on video or was busy in the back but she was not visible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r438147644-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438147644</t>
+  </si>
+  <si>
+    <t>11/17/2016</t>
+  </si>
+  <si>
+    <t>Broken toilet for a week &amp; no refund</t>
+  </si>
+  <si>
+    <t>Horrible customer service, they will steal your money. had a broken toilet that they didn't fix the entire week I stayed there. Also the hotel doesn't have any sort of maintenance on the weekend, or so I was told. I've been calling them all week wasting my time trying to get a refund. Now they tell me they can't give me my money back and to me that's stealing my money because I didn't get what I paid for. They offered to change rooms at one point but who wants to have to pack and move at 11 pm after a ten hour work day. These people will lie, take your money, and they don't care about making the customers happy, don't stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Horrible customer service, they will steal your money. had a broken toilet that they didn't fix the entire week I stayed there. Also the hotel doesn't have any sort of maintenance on the weekend, or so I was told. I've been calling them all week wasting my time trying to get a refund. Now they tell me they can't give me my money back and to me that's stealing my money because I didn't get what I paid for. They offered to change rooms at one point but who wants to have to pack and move at 11 pm after a ten hour work day. These people will lie, take your money, and they don't care about making the customers happy, don't stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r432798256-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>432798256</t>
+  </si>
+  <si>
+    <t>10/29/2016</t>
+  </si>
+  <si>
+    <t>A good night's rest</t>
+  </si>
+  <si>
+    <t>We spent a night here when doing some business in Houston, and the accommodations were exactly what we needed. The staff were helpful, and the building was located near a variety of eating establishments for us to choose from. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded October 31, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2016</t>
+  </si>
+  <si>
+    <t>We spent a night here when doing some business in Houston, and the accommodations were exactly what we needed. The staff were helpful, and the building was located near a variety of eating establishments for us to choose from. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r418500524-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>418500524</t>
+  </si>
+  <si>
+    <t>09/14/2016</t>
+  </si>
+  <si>
+    <t>Great!</t>
+  </si>
+  <si>
+    <t>I have stayed here several times, and it's my Preferred ESA when I am in Houston. The rooms are always clean, even the regular Queen not the suites are roomier than alot of the other ESA. This one is convenient too if you wish to go downtown you can just walk to Westheimer and grab a bus which takes you straight there. The Manager Maria, Jose who was previously here and Emerson are always very Pleasant. As all hotels everyone has something different to say, but I've been here enough to know the consistency. Please keep Maria as Manager too because when you have a great staff the guest are better taken car. This location also has a nice pool and a convenient store/gas station that is safe to walk to any time day or night. As always thanks for a great stay see you guys again in a few days.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I have stayed here several times, and it's my Preferred ESA when I am in Houston. The rooms are always clean, even the regular Queen not the suites are roomier than alot of the other ESA. This one is convenient too if you wish to go downtown you can just walk to Westheimer and grab a bus which takes you straight there. The Manager Maria, Jose who was previously here and Emerson are always very Pleasant. As all hotels everyone has something different to say, but I've been here enough to know the consistency. Please keep Maria as Manager too because when you have a great staff the guest are better taken car. This location also has a nice pool and a convenient store/gas station that is safe to walk to any time day or night. As always thanks for a great stay see you guys again in a few days.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r283477280-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283477280</t>
+  </si>
+  <si>
+    <t>06/27/2015</t>
+  </si>
+  <si>
+    <t>The entire staff made me feel like a family member through out my stay.</t>
+  </si>
+  <si>
+    <t>The evening I checked in the young lady (Kendria sp???) was very polite and accommodating. I had to change rooms; no problem.. She brought extra linens, utensils to my room. The Housekeeper (Anilyn) kept my room clean, tidy. The Maintenance man (name???) filled requests quickly.The office staff: Aldie, David, Mary and others were always polite and accommodating whenever I approached the desk.The Crown Jewel is the manager: Ms Rodriguez. I was looking for apt in 55+ community. Ms Rodriguez looked up several listings for me and I am currently living in one of those locations and I love it! I recently moved to Houston. When my friends come here to visit me they will also stay at THIS extended stay hotel. 2424 Sam Houston Pkwy, Houston, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>The evening I checked in the young lady (Kendria sp???) was very polite and accommodating. I had to change rooms; no problem.. She brought extra linens, utensils to my room. The Housekeeper (Anilyn) kept my room clean, tidy. The Maintenance man (name???) filled requests quickly.The office staff: Aldie, David, Mary and others were always polite and accommodating whenever I approached the desk.The Crown Jewel is the manager: Ms Rodriguez. I was looking for apt in 55+ community. Ms Rodriguez looked up several listings for me and I am currently living in one of those locations and I love it! I recently moved to Houston. When my friends come here to visit me they will also stay at THIS extended stay hotel. 2424 Sam Houston Pkwy, Houston, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r275552641-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275552641</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Best Hotel for the Price &amp; Location</t>
+  </si>
+  <si>
+    <t>I've been staying at this property for over two years while working here in Houston during the week days.  Best hotel I've stayed in for the price. Any issues, and they have been few and far between, have been promptly addressed. Staff is friendly and helpful. Manager is very dedicated and available.  Breakfast is ready by 6:00 am every morning.  Property is clean and well maintainedMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded June 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2015</t>
+  </si>
+  <si>
+    <t>I've been staying at this property for over two years while working here in Houston during the week days.  Best hotel I've stayed in for the price. Any issues, and they have been few and far between, have been promptly addressed. Staff is friendly and helpful. Manager is very dedicated and available.  Breakfast is ready by 6:00 am every morning.  Property is clean and well maintainedMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r274835007-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>274835007</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>HOME AWAY FROM HOME</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for a little over a year about every other week. The manager, Miss Maria Rodriquez and her staff has made me feel welcomed in every way. The hotel is situated in a great part of town so that I can conduct my business with ease. The rooms are always clean and all of the appliances work wonderfully. I would advise anyone coming to the Houston area to stay at this hotel. They truly make you feel like you have a home away from home here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded June 5, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2015</t>
+  </si>
+  <si>
+    <t>I have been staying at this location for a little over a year about every other week. The manager, Miss Maria Rodriquez and her staff has made me feel welcomed in every way. The hotel is situated in a great part of town so that I can conduct my business with ease. The rooms are always clean and all of the appliances work wonderfully. I would advise anyone coming to the Houston area to stay at this hotel. They truly make you feel like you have a home away from home here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r240873064-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>240873064</t>
+  </si>
+  <si>
+    <t>11/21/2014</t>
+  </si>
+  <si>
+    <t>Look further</t>
+  </si>
+  <si>
+    <t>I was booked in by another party as it was close to the Briar Forest.
+The only efficient and good thing was the check-in.
+Going up to my room with the elevator I had visions of an elevator coming to an abrupt halt between the first and second floor as the cables and pulleys creak with the hoisting of the escalator.
+When I opened the bedroom door I was reeling back from the sweet smell that was masking a serious mustiness.
+Gratefully the bed, chairs and sofa is intact. The one lounge chair has something sticky on it so I can not use it.
+I really do not know who decided to install the air conditioner right against the bed. It goes off with a rattle like a jackhammer and either toasts you or freezes you up. Surely an aircon at the door would have made more sense.
+Ah and the place has a fridge. But wait it sounds like an 28 wheeler Oskosh truck on air brakes down a steep incline. Just this truck never gets to the bottom.......
+The stove rings appears to be loose in their recess, and it could create a problem when cooking.
+Luckily the lights, shower and toilet works. But the shower curtain rail looks like it is going to drop any moment as it sags badly.
+I really cant say that the room is serviced as some items appear to stay in one...I was booked in by another party as it was close to the Briar Forest.The only efficient and good thing was the check-in.Going up to my room with the elevator I had visions of an elevator coming to an abrupt halt between the first and second floor as the cables and pulleys creak with the hoisting of the escalator.When I opened the bedroom door I was reeling back from the sweet smell that was masking a serious mustiness.Gratefully the bed, chairs and sofa is intact. The one lounge chair has something sticky on it so I can not use it.I really do not know who decided to install the air conditioner right against the bed. It goes off with a rattle like a jackhammer and either toasts you or freezes you up. Surely an aircon at the door would have made more sense.Ah and the place has a fridge. But wait it sounds like an 28 wheeler Oskosh truck on air brakes down a steep incline. Just this truck never gets to the bottom.......The stove rings appears to be loose in their recess, and it could create a problem when cooking.Luckily the lights, shower and toilet works. But the shower curtain rail looks like it is going to drop any moment as it sags badly.I really cant say that the room is serviced as some items appear to stay in one place.They do have free wifi, but slow. You have to purchase an upgrade to get a decent Wifi speed.I have asked for a second blanket twice during the cold snap. So I really do not think the service is good. those small things do matter when you are away from home.Most nights are bad nights as the doors to the rooms tend to slam. and the heavy footed residents seem not to care about others as they walk down the corridor in such manner that the glasses on the kitchen top rattle. Not to mention the parties that go on till 3am in the morning.I was under the impression it was a smoke free hotel but there is a strong wiff of it in the corridor. I just hope the hotel does not burn down.And if you are lonely. Do not despair.  There are girls of ill repute who will knock on your door offering services.I guess I shall be moving out soon. I have to secure a better place to my liking and then I'm gone.Perhaps other customers find it acceptable. I don't. PS I am sorry to say this is the 2nd place I really rate below par and I have reviewed a fair number of places, all good to beyond my expectations.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>I was booked in by another party as it was close to the Briar Forest.
+The only efficient and good thing was the check-in.
+Going up to my room with the elevator I had visions of an elevator coming to an abrupt halt between the first and second floor as the cables and pulleys creak with the hoisting of the escalator.
+When I opened the bedroom door I was reeling back from the sweet smell that was masking a serious mustiness.
+Gratefully the bed, chairs and sofa is intact. The one lounge chair has something sticky on it so I can not use it.
+I really do not know who decided to install the air conditioner right against the bed. It goes off with a rattle like a jackhammer and either toasts you or freezes you up. Surely an aircon at the door would have made more sense.
+Ah and the place has a fridge. But wait it sounds like an 28 wheeler Oskosh truck on air brakes down a steep incline. Just this truck never gets to the bottom.......
+The stove rings appears to be loose in their recess, and it could create a problem when cooking.
+Luckily the lights, shower and toilet works. But the shower curtain rail looks like it is going to drop any moment as it sags badly.
+I really cant say that the room is serviced as some items appear to stay in one...I was booked in by another party as it was close to the Briar Forest.The only efficient and good thing was the check-in.Going up to my room with the elevator I had visions of an elevator coming to an abrupt halt between the first and second floor as the cables and pulleys creak with the hoisting of the escalator.When I opened the bedroom door I was reeling back from the sweet smell that was masking a serious mustiness.Gratefully the bed, chairs and sofa is intact. The one lounge chair has something sticky on it so I can not use it.I really do not know who decided to install the air conditioner right against the bed. It goes off with a rattle like a jackhammer and either toasts you or freezes you up. Surely an aircon at the door would have made more sense.Ah and the place has a fridge. But wait it sounds like an 28 wheeler Oskosh truck on air brakes down a steep incline. Just this truck never gets to the bottom.......The stove rings appears to be loose in their recess, and it could create a problem when cooking.Luckily the lights, shower and toilet works. But the shower curtain rail looks like it is going to drop any moment as it sags badly.I really cant say that the room is serviced as some items appear to stay in one place.They do have free wifi, but slow. You have to purchase an upgrade to get a decent Wifi speed.I have asked for a second blanket twice during the cold snap. So I really do not think the service is good. those small things do matter when you are away from home.Most nights are bad nights as the doors to the rooms tend to slam. and the heavy footed residents seem not to care about others as they walk down the corridor in such manner that the glasses on the kitchen top rattle. Not to mention the parties that go on till 3am in the morning.I was under the impression it was a smoke free hotel but there is a strong wiff of it in the corridor. I just hope the hotel does not burn down.And if you are lonely. Do not despair.  There are girls of ill repute who will knock on your door offering services.I guess I shall be moving out soon. I have to secure a better place to my liking and then I'm gone.Perhaps other customers find it acceptable. I don't. PS I am sorry to say this is the 2nd place I really rate below par and I have reviewed a fair number of places, all good to beyond my expectations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r232725503-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232725503</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Nice Place In A Better Area!</t>
+  </si>
+  <si>
+    <t>I booked 4 rooms for guests through hotwire and have to extended one night for one of the guest. They enjoyed the stay and that makes me feel happy. No complain at all and I recommend it again for anyone!</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r232714578-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>232714578</t>
+  </si>
+  <si>
+    <t>Good experience</t>
+  </si>
+  <si>
+    <t>This extended Stay is different from others.  For those who like to keep fit , I strongly recommend  this facility. The kitchen is good and  facility is quite accessible to good shopping centers and restaurants. About 35 miles from Bush international.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r229071534-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>229071534</t>
+  </si>
+  <si>
+    <t>09/15/2014</t>
+  </si>
+  <si>
+    <t>stay away from it</t>
+  </si>
+  <si>
+    <t>We stayed here for the labor day weekend. When we arrived, the room is obviously messy, trash all over the place, kitchen, bathroom. we called the front desk, and yes, he does not know what to do, and of course the hotel is booked up so we can not change rooms. During our 2 nights stay, no manager ever apologized to us,  no one has ever cleaned our room!!!! This is the worst experience i ever had.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r219875320-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219875320</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>minimal at best</t>
+  </si>
+  <si>
+    <t>If I had pulled off the road after a long day driving the place would have been fine but the place is rather disappointing for a week long stay. All the rooms face into rooms of neighboring hotels or the surface streets so the shades are always shut. Sections of the floor above squeaked badly with guests arriving late. Prostitutes leaving the lobby twice on my way to dinner. A/C unit is very loud. Microwave, oven, and fridge worked fine."Breakfast" had good coffee but only a handful of instant oatmeal and occasionally greasy muffins, fortunately the conference down the road had a better stocked break room I could raid in the morning.There's another Extended Stay America down the street south of this one but I would avoid this whole street in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>If I had pulled off the road after a long day driving the place would have been fine but the place is rather disappointing for a week long stay. All the rooms face into rooms of neighboring hotels or the surface streets so the shades are always shut. Sections of the floor above squeaked badly with guests arriving late. Prostitutes leaving the lobby twice on my way to dinner. A/C unit is very loud. Microwave, oven, and fridge worked fine."Breakfast" had good coffee but only a handful of instant oatmeal and occasionally greasy muffins, fortunately the conference down the road had a better stocked break room I could raid in the morning.There's another Extended Stay America down the street south of this one but I would avoid this whole street in the future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r212380372-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>212380372</t>
+  </si>
+  <si>
+    <t>06/27/2014</t>
+  </si>
+  <si>
+    <t>DO NOT WASTE YOUR TIME!</t>
+  </si>
+  <si>
+    <t>After a 16+ hour trip and much sleep needed, we expected to arrive at a decent hotel and have a cozy room awaiting. Upon arriving at approximately 6am, we not only were surprised that our room was given to another customer, but they tried giving us another room which was occupied!
+After hours of haggling back and forth with the managers of this hotel and nearby hotels as well as their horrible customer support line, they transferred us to the 3200 location.
+Upon arrival to this new location which was down the street, we spent an hour trying to get checked in because  the managers had no idea how to handle the situation. They ended up just giving us a room and resolving the issues later.
+When it was checkout time, I logged into our bank account and noticed they had charged us double the rate on top of what we had already paid for the hotel!
+We spoke to a rep at the 3200 location which was telling us they don't "honor" room transfer prices. We demanded to speak to a manager, which was understandable and processed our refund.
+This was the worst experience I have ever had with a hotel brand in my life. We even sent corporate an email over a week ago and they have yet to reply - this was expected.
+Save your time and go to a respectable hotel chain like the Holiday Inn...After a 16+ hour trip and much sleep needed, we expected to arrive at a decent hotel and have a cozy room awaiting. Upon arriving at approximately 6am, we not only were surprised that our room was given to another customer, but they tried giving us another room which was occupied!After hours of haggling back and forth with the managers of this hotel and nearby hotels as well as their horrible customer support line, they transferred us to the 3200 location.Upon arrival to this new location which was down the street, we spent an hour trying to get checked in because  the managers had no idea how to handle the situation. They ended up just giving us a room and resolving the issues later.When it was checkout time, I logged into our bank account and noticed they had charged us double the rate on top of what we had already paid for the hotel!We spoke to a rep at the 3200 location which was telling us they don't "honor" room transfer prices. We demanded to speak to a manager, which was understandable and processed our refund.This was the worst experience I have ever had with a hotel brand in my life. We even sent corporate an email over a week ago and they have yet to reply - this was expected.Save your time and go to a respectable hotel chain like the Holiday Inn which is nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>After a 16+ hour trip and much sleep needed, we expected to arrive at a decent hotel and have a cozy room awaiting. Upon arriving at approximately 6am, we not only were surprised that our room was given to another customer, but they tried giving us another room which was occupied!
+After hours of haggling back and forth with the managers of this hotel and nearby hotels as well as their horrible customer support line, they transferred us to the 3200 location.
+Upon arrival to this new location which was down the street, we spent an hour trying to get checked in because  the managers had no idea how to handle the situation. They ended up just giving us a room and resolving the issues later.
+When it was checkout time, I logged into our bank account and noticed they had charged us double the rate on top of what we had already paid for the hotel!
+We spoke to a rep at the 3200 location which was telling us they don't "honor" room transfer prices. We demanded to speak to a manager, which was understandable and processed our refund.
+This was the worst experience I have ever had with a hotel brand in my life. We even sent corporate an email over a week ago and they have yet to reply - this was expected.
+Save your time and go to a respectable hotel chain like the Holiday Inn...After a 16+ hour trip and much sleep needed, we expected to arrive at a decent hotel and have a cozy room awaiting. Upon arriving at approximately 6am, we not only were surprised that our room was given to another customer, but they tried giving us another room which was occupied!After hours of haggling back and forth with the managers of this hotel and nearby hotels as well as their horrible customer support line, they transferred us to the 3200 location.Upon arrival to this new location which was down the street, we spent an hour trying to get checked in because  the managers had no idea how to handle the situation. They ended up just giving us a room and resolving the issues later.When it was checkout time, I logged into our bank account and noticed they had charged us double the rate on top of what we had already paid for the hotel!We spoke to a rep at the 3200 location which was telling us they don't "honor" room transfer prices. We demanded to speak to a manager, which was understandable and processed our refund.This was the worst experience I have ever had with a hotel brand in my life. We even sent corporate an email over a week ago and they have yet to reply - this was expected.Save your time and go to a respectable hotel chain like the Holiday Inn which is nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r205615067-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>205615067</t>
+  </si>
+  <si>
+    <t>05/14/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spartan accommodations </t>
+  </si>
+  <si>
+    <t>Due to OTC this was only reasonably priced facility with availability.Service was poor even go extended stay.Bed not so comfortable.  Limited TV channels.Facility needs better upkeep.One day garbage smell was very bad.Cheap but I would pay more to have it nicer.Breakfast was a joke but I must sat the coffee was excellent.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r204886383-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>204886383</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Problems and problems</t>
+  </si>
+  <si>
+    <t>I had a reservation in other hotel of the same chain. As it was overbooked, was transferred for this, with the remark that some discount would apply for the inconvenience.Arriving, as the price was the same, I complained, and then the price increased, instead of reducing.In the first night there was a bug problem in one of the beds in the bedroom, forcing a sofa sleep.It was hard to achieve the manager, as she stays only short time at the hotel, and did not called, as the reception informed.After 10 years using this chain, in the next trip unfortunately I will change.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r200691136-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200691136</t>
+  </si>
+  <si>
+    <t>04/11/2014</t>
+  </si>
+  <si>
+    <t>Basic and comfortable</t>
+  </si>
+  <si>
+    <t>This hotel is as advertised, a very basic, inexpensive accommodation for travelers.  Comfortable bed, full kitchen area, television.  There is wi-fi in the rooms, but no business center.  The woman at the front desk was very courteous and helpful, she printed out my airline boarding pass. Breakfast is just a display of coffee, tea, oranges, apples, packaged muffins and cereal bars. The bathroom is stocked with two bars of soap, no shampoo.  Bottom line, the hotel gives you exactly what it promises, a comfortable bed for the night at a very modest price, no frills.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r184495435-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184495435</t>
+  </si>
+  <si>
+    <t>11/12/2013</t>
+  </si>
+  <si>
+    <t>commendation for extended stay 2424 West Sam Houston</t>
+  </si>
+  <si>
+    <t>My family connection has brought me to Houston Texas few time a yesar. Most of the time I stayed in Extended Stay in Houston.My favour is the one located at 2424 West Sam Houston Parkway. The staff are wonderful , friendly, helpfuland alway taking extra step tohelp all the customer.The Manager Mr.Brandon Crossy even helped me to use my own Ipad. I'd like to give commendation  for all the staffs; especially "Maria" who has best listening skills and nice smiling.The property is clean, continential breakfast always fulfiled to customer request.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded November 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 15, 2013</t>
+  </si>
+  <si>
+    <t>My family connection has brought me to Houston Texas few time a yesar. Most of the time I stayed in Extended Stay in Houston.My favour is the one located at 2424 West Sam Houston Parkway. The staff are wonderful , friendly, helpfuland alway taking extra step tohelp all the customer.The Manager Mr.Brandon Crossy even helped me to use my own Ipad. I'd like to give commendation  for all the staffs; especially "Maria" who has best listening skills and nice smiling.The property is clean, continential breakfast always fulfiled to customer request.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r184364571-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>184364571</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>great property and staff</t>
+  </si>
+  <si>
+    <t>I got impressed when I visited at first time. friendly greeting and pretty good property.Also It is located in the safe area and near by many facilities like a grocery store, snack bar.anyway if you have a plan to visit the Houston, I will recommend you to stay in the Extended stay America.MoreShow less</t>
+  </si>
+  <si>
+    <t>I got impressed when I visited at first time. friendly greeting and pretty good property.Also It is located in the safe area and near by many facilities like a grocery store, snack bar.anyway if you have a plan to visit the Houston, I will recommend you to stay in the Extended stay America.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r175365071-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>175365071</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>nice property</t>
+  </si>
+  <si>
+    <t>I got this place as a $39 Priceline Express Deal. Actually went to the wrong property (3200 W Sam Houston Fwy near Richmond) but they sent me to the property 'north of Westheimer'.  I accessed the property from Rogerdale.  There was a free breakfast but I left prior to 6 am and there is no business center or free lobby computer with internet.  I think I saw a small indoor pool and a fitness center by the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded September 4, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2013</t>
+  </si>
+  <si>
+    <t>I got this place as a $39 Priceline Express Deal. Actually went to the wrong property (3200 W Sam Houston Fwy near Richmond) but they sent me to the property 'north of Westheimer'.  I accessed the property from Rogerdale.  There was a free breakfast but I left prior to 6 am and there is no business center or free lobby computer with internet.  I think I saw a small indoor pool and a fitness center by the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r162317477-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>162317477</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>Very helpful management</t>
+  </si>
+  <si>
+    <t>The room was spacious, quiet and comfortable, and the staff, especially the manager Brandon, was exceptionally helpful.  The location is excellent for shopping, dining and access to freeways.  Unfortunately some GPS identify it as located on the east rather than west side of Sam Houston Expressway. Facilities are designed for cooking, including an oven, but no oven suitable pans or dishes are provided.  Brandon helpfully came up with a broiler rack upon request.  He also "saved" our reservation when the temporary loss of some rooms led us to be offered a room at a different ESA in place of the one we reserved. We were very pleased with the stay there and would definitely return.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded May 31, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2013</t>
+  </si>
+  <si>
+    <t>The room was spacious, quiet and comfortable, and the staff, especially the manager Brandon, was exceptionally helpful.  The location is excellent for shopping, dining and access to freeways.  Unfortunately some GPS identify it as located on the east rather than west side of Sam Houston Expressway. Facilities are designed for cooking, including an oven, but no oven suitable pans or dishes are provided.  Brandon helpfully came up with a broiler rack upon request.  He also "saved" our reservation when the temporary loss of some rooms led us to be offered a room at a different ESA in place of the one we reserved. We were very pleased with the stay there and would definitely return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r159648562-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159648562</t>
+  </si>
+  <si>
+    <t>05/04/2013</t>
+  </si>
+  <si>
+    <t>Comfortable In USA</t>
+  </si>
+  <si>
+    <t>My experience at Extended Stay America has been excellent.It is a cosy and soothing stay.The staff has been cooperative and hospitable.The room cleaning services and the Grab and Go breakfast are very good.The early morning (starting at  6AM) breakfast boosts the energy at the start of the day andthe well planned rooms along with the well equipped kitchen make you feel at home. The nicely planted garden adds to the aesthetic beauty of the 2424 extended stay.The swimming pool is an added joy.BEST WISHES TO THE MANAGEMENT AND STAFF OF EXTENDED STAY.Warm regards,NiteenMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded May 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 10, 2013</t>
+  </si>
+  <si>
+    <t>My experience at Extended Stay America has been excellent.It is a cosy and soothing stay.The staff has been cooperative and hospitable.The room cleaning services and the Grab and Go breakfast are very good.The early morning (starting at  6AM) breakfast boosts the energy at the start of the day andthe well planned rooms along with the well equipped kitchen make you feel at home. The nicely planted garden adds to the aesthetic beauty of the 2424 extended stay.The swimming pool is an added joy.BEST WISHES TO THE MANAGEMENT AND STAFF OF EXTENDED STAY.Warm regards,NiteenMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r157970049-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157970049</t>
+  </si>
+  <si>
+    <t>04/16/2013</t>
+  </si>
+  <si>
+    <t>my home away from home!</t>
+  </si>
+  <si>
+    <t>Grand staff, grand place, grand guest, doesn't feel like you're staying in a hotel. Nice to great shopping, outdoor fun, close to all the hot spots, good for conducting business, easy to make flights connections, safe location, clean rooms, team works hard to meet your requests, cold a/c, great for relaxing after work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r154452866-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154452866</t>
+  </si>
+  <si>
+    <t>03/13/2013</t>
+  </si>
+  <si>
+    <t>Make sure they have non-smoking rooms reserved for you.</t>
+  </si>
+  <si>
+    <t>I reserved 2 non-smoking  rooms for a business partner and me, but on arrival, both of us were told they had only smoking rooms available. My reservation printout had no mention of smoking rooms. They offered to spray some chemical to cover the odor.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 15, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2013</t>
+  </si>
+  <si>
+    <t>I reserved 2 non-smoking  rooms for a business partner and me, but on arrival, both of us were told they had only smoking rooms available. My reservation printout had no mention of smoking rooms. They offered to spray some chemical to cover the odor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r154259367-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>154259367</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>Excellent Extended Stay!</t>
+  </si>
+  <si>
+    <t>My wife and I are here for 5 weeks, and this place is excellent.  Overall, it is quiet, with good service when needed, and clean.  We had one minor issue with a leaky faucet, and it was repaired the next day.Parking is free, and the location is great as well.  I recommend this place if you need a place for a week or longer.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 13, 2013</t>
+  </si>
+  <si>
+    <t>My wife and I are here for 5 weeks, and this place is excellent.  Overall, it is quiet, with good service when needed, and clean.  We had one minor issue with a leaky faucet, and it was repaired the next day.Parking is free, and the location is great as well.  I recommend this place if you need a place for a week or longer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r152676870-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>152676870</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>As a buisness traveler, I stay at many hotels. In this area I in the past stayed at the property down the street from this location. I decided to try this Extended Stay America because I was informed they went through a remodel recently. I have to say I was very impressed. The rooms are a nice size and the hotel over all is very clean. The staff there is very welcoming as well. I believe the very nice gentleman that checked me in was by the name of Jack or Jake. He did a great job at letting me know what the property offered and politely told me to let him know if I needed anything else on my stay. When an issue arose with my room Bryan was very helpful in getting maintenance up there right away to help fix the problem. The maintenance man was very nice and quick at getting the problem solved. The breakfast was just like always very well displayed and nice. In the future with my trips to Houston this property will be my new home away from home. I strongly recommend giving this hotel a try on your next trip. MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded February 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2013</t>
+  </si>
+  <si>
+    <t>As a buisness traveler, I stay at many hotels. In this area I in the past stayed at the property down the street from this location. I decided to try this Extended Stay America because I was informed they went through a remodel recently. I have to say I was very impressed. The rooms are a nice size and the hotel over all is very clean. The staff there is very welcoming as well. I believe the very nice gentleman that checked me in was by the name of Jack or Jake. He did a great job at letting me know what the property offered and politely told me to let him know if I needed anything else on my stay. When an issue arose with my room Bryan was very helpful in getting maintenance up there right away to help fix the problem. The maintenance man was very nice and quick at getting the problem solved. The breakfast was just like always very well displayed and nice. In the future with my trips to Houston this property will be my new home away from home. I strongly recommend giving this hotel a try on your next trip. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r150063192-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150063192</t>
+  </si>
+  <si>
+    <t>01/19/2013</t>
+  </si>
+  <si>
+    <t>You want to stay here...you need to stay here!</t>
+  </si>
+  <si>
+    <t>Extended stay hotels can be hit or miss - this Extended Stay America location is not a hit - it is a homerun! The location was recently renovated and the rooms still have a "new car" feeling to them. The room was enormous. The bed was very comfortable - brand new, pillow top, queen - linens were basic, like all Extended Stay locations, but adequate for my needs. My room had a new couch and chair (pleather?) - both were easy to relax in. My kitchen had a range with four burners and an oven (standard pot and pan provided, but no baking/broiling kitchenware), new microwave, medium sized fridge (it is a small full sized fridge), sink, and a half-dishwasher. Bathroom was clean with a new tub/shower. Staff was great at check-in. No one wants to live in a hotel, but if I had to live in a hotel, this would be the location I would want to live at. I can't think of enough good things to say about this location. Bid on Priceline - this hotel is in the 2* category, but I would rate it as a 4* on the Priceline scale. You can't beat the value - I bid $32/night ($22+$10/night bonus cash).MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Extended stay hotels can be hit or miss - this Extended Stay America location is not a hit - it is a homerun! The location was recently renovated and the rooms still have a "new car" feeling to them. The room was enormous. The bed was very comfortable - brand new, pillow top, queen - linens were basic, like all Extended Stay locations, but adequate for my needs. My room had a new couch and chair (pleather?) - both were easy to relax in. My kitchen had a range with four burners and an oven (standard pot and pan provided, but no baking/broiling kitchenware), new microwave, medium sized fridge (it is a small full sized fridge), sink, and a half-dishwasher. Bathroom was clean with a new tub/shower. Staff was great at check-in. No one wants to live in a hotel, but if I had to live in a hotel, this would be the location I would want to live at. I can't think of enough good things to say about this location. Bid on Priceline - this hotel is in the 2* category, but I would rate it as a 4* on the Priceline scale. You can't beat the value - I bid $32/night ($22+$10/night bonus cash).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r146947887-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146947887</t>
+  </si>
+  <si>
+    <t>12/07/2012</t>
+  </si>
+  <si>
+    <t>Yikes</t>
+  </si>
+  <si>
+    <t>I got what I paid for I guess. I figured I would save a little money, but Yikes! The second floor smells of BO and Indian food. Was revolting. The hotel room was clean but I think a I have couple of bite marks on me, I'm praying they aren't bed bugs. The staff were nice and friendly so that's why they get 1 star. I will never stay here or at any extended stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded December 10, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 10, 2012</t>
+  </si>
+  <si>
+    <t>I got what I paid for I guess. I figured I would save a little money, but Yikes! The second floor smells of BO and Indian food. Was revolting. The hotel room was clean but I think a I have couple of bite marks on me, I'm praying they aren't bed bugs. The staff were nice and friendly so that's why they get 1 star. I will never stay here or at any extended stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r146091475-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146091475</t>
+  </si>
+  <si>
+    <t>11/24/2012</t>
+  </si>
+  <si>
+    <t>outstanding!</t>
+  </si>
+  <si>
+    <t>rooms updated.. new flat screens..wood floors..new carpet just looks great with full size kitchen and now offer a breakfast which is easy &amp; perfect for kiddos! all customer service at this location are great and always friendly! i will definitely use them again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded November 29, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 29, 2012</t>
+  </si>
+  <si>
+    <t>rooms updated.. new flat screens..wood floors..new carpet just looks great with full size kitchen and now offer a breakfast which is easy &amp; perfect for kiddos! all customer service at this location are great and always friendly! i will definitely use them again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r136017569-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136017569</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Definitely Recommend</t>
+  </si>
+  <si>
+    <t>I have twice utilized the Studio Plus hotel in Houston (Westchase District, off the Beltway 8/Sam Houston Parkway), once for a long, personal layover (6-months plus) and another for a recent out-of-state visit from my parents.  On both occasions, my stay there was very pleasant.  The accommodations are well-maintained, the hotel pool is quite nice and - most importantly - the staff always goes out of their way to assist you.  In fact, it's the hotel staff that sets this establishment apart.  If you are seeking lodging at a reasonable cost with solid living quarters, I would definitely recommend this establishment.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded August 3, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2012</t>
+  </si>
+  <si>
+    <t>I have twice utilized the Studio Plus hotel in Houston (Westchase District, off the Beltway 8/Sam Houston Parkway), once for a long, personal layover (6-months plus) and another for a recent out-of-state visit from my parents.  On both occasions, my stay there was very pleasant.  The accommodations are well-maintained, the hotel pool is quite nice and - most importantly - the staff always goes out of their way to assist you.  In fact, it's the hotel staff that sets this establishment apart.  If you are seeking lodging at a reasonable cost with solid living quarters, I would definitely recommend this establishment.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r132024015-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>132024015</t>
+  </si>
+  <si>
+    <t>06/15/2012</t>
+  </si>
+  <si>
+    <t>Felt Like Home for 2.5 Years</t>
+  </si>
+  <si>
+    <t>I moved to this Hotel in September of 2009.  Working here in Houston through the week and commuting back to North Texas on weekends.  I moved out in May of 2012 and it was like moving away from my second home and second family.  For 2.5 years, Maricela the manager and her very competent employees looked after me, my room, my vehicle and my guest when they came to stay.  They made me feel as part of a family.  This hotel gets a 5 star on service, attitude and professionalism.  Thank you Maricela, Lisa, Bo, Mark and the hotel cleaning staff. I will miss you!LWPMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 11, 2012</t>
+  </si>
+  <si>
+    <t>I moved to this Hotel in September of 2009.  Working here in Houston through the week and commuting back to North Texas on weekends.  I moved out in May of 2012 and it was like moving away from my second home and second family.  For 2.5 years, Maricela the manager and her very competent employees looked after me, my room, my vehicle and my guest when they came to stay.  They made me feel as part of a family.  This hotel gets a 5 star on service, attitude and professionalism.  Thank you Maricela, Lisa, Bo, Mark and the hotel cleaning staff. I will miss you!LWPMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r5921369-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5921369</t>
+  </si>
+  <si>
+    <t>10/05/2006</t>
+  </si>
+  <si>
+    <t>Fine except for one problem</t>
+  </si>
+  <si>
+    <t>I'd like to recommend this hotel as there are many positives. The location is convenient. The staff were pleasant. Although not plush, my room was well appointed, with a complete kitchen - spotless and well equipped - living/dining area and sleeping area with a queen bed that wasn't uncomfortable. The one thing holding me back is my room had a pretty strong musty/mildew smell. I probably should have asked for a different room but I figured I was only there for one night why bother. I don't know if it was just my room or a general problem.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1651,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1683,3012 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>80</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>81</v>
+      </c>
+      <c r="X5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" t="s">
+        <v>105</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" t="s">
+        <v>112</v>
+      </c>
+      <c r="L9" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
+        <v>119</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L10" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>122</v>
+      </c>
+      <c r="X10" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>130</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>131</v>
+      </c>
+      <c r="X11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K12" t="s">
+        <v>137</v>
+      </c>
+      <c r="L12" t="s">
+        <v>138</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>139</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>140</v>
+      </c>
+      <c r="X12" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L13" t="s">
+        <v>147</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X13" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>158</v>
+      </c>
+      <c r="X14" t="s">
+        <v>159</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" t="s">
+        <v>163</v>
+      </c>
+      <c r="K15" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" t="s">
+        <v>165</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>166</v>
+      </c>
+      <c r="O15" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="s">
+        <v>170</v>
+      </c>
+      <c r="K16" t="s">
+        <v>171</v>
+      </c>
+      <c r="L16" t="s">
+        <v>172</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>3</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>173</v>
+      </c>
+      <c r="X16" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" t="s">
+        <v>179</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>181</v>
+      </c>
+      <c r="O17" t="s">
+        <v>182</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>183</v>
+      </c>
+      <c r="X17" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>191</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>192</v>
+      </c>
+      <c r="X18" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>196</v>
+      </c>
+      <c r="J19" t="s">
+        <v>197</v>
+      </c>
+      <c r="K19" t="s">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s">
+        <v>199</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>200</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>203</v>
+      </c>
+      <c r="J20" t="s">
+        <v>204</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>208</v>
+      </c>
+      <c r="X20" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>211</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>212</v>
+      </c>
+      <c r="J21" t="s">
+        <v>213</v>
+      </c>
+      <c r="K21" t="s">
+        <v>214</v>
+      </c>
+      <c r="L21" t="s">
+        <v>215</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>216</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>217</v>
+      </c>
+      <c r="X21" t="s">
+        <v>218</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>220</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>222</v>
+      </c>
+      <c r="K22" t="s">
+        <v>223</v>
+      </c>
+      <c r="L22" t="s">
+        <v>224</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>225</v>
+      </c>
+      <c r="X22" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>228</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>229</v>
+      </c>
+      <c r="J23" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" t="s">
+        <v>232</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>235</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>236</v>
+      </c>
+      <c r="J24" t="s">
+        <v>237</v>
+      </c>
+      <c r="K24" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>240</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>242</v>
+      </c>
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+      <c r="K25" t="s">
+        <v>243</v>
+      </c>
+      <c r="L25" t="s">
+        <v>244</v>
+      </c>
+      <c r="M25" t="n">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>245</v>
+      </c>
+      <c r="O25" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>252</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>253</v>
+      </c>
+      <c r="J27" t="s">
+        <v>254</v>
+      </c>
+      <c r="K27" t="s">
+        <v>255</v>
+      </c>
+      <c r="L27" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>257</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>3</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>260</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>262</v>
+      </c>
+      <c r="L28" t="s">
+        <v>263</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>264</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>266</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>267</v>
+      </c>
+      <c r="J29" t="s">
+        <v>268</v>
+      </c>
+      <c r="K29" t="s">
+        <v>269</v>
+      </c>
+      <c r="L29" t="s">
+        <v>270</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s"/>
+      <c r="O29" t="s"/>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>271</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>272</v>
+      </c>
+      <c r="J30" t="s">
+        <v>273</v>
+      </c>
+      <c r="K30" t="s">
+        <v>274</v>
+      </c>
+      <c r="L30" t="s">
+        <v>275</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>276</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>278</v>
+      </c>
+      <c r="J31" t="s">
+        <v>279</v>
+      </c>
+      <c r="K31" t="s">
+        <v>280</v>
+      </c>
+      <c r="L31" t="s">
+        <v>281</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>282</v>
+      </c>
+      <c r="O31" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>283</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>284</v>
+      </c>
+      <c r="J32" t="s">
+        <v>285</v>
+      </c>
+      <c r="K32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L32" t="s">
+        <v>287</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>288</v>
+      </c>
+      <c r="O32" t="s">
+        <v>182</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>289</v>
+      </c>
+      <c r="X32" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>288</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>289</v>
+      </c>
+      <c r="X33" t="s">
+        <v>290</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>182</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>304</v>
+      </c>
+      <c r="X34" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>307</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>308</v>
+      </c>
+      <c r="J35" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" t="s">
+        <v>310</v>
+      </c>
+      <c r="L35" t="s">
+        <v>311</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>312</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>313</v>
+      </c>
+      <c r="X35" t="s">
+        <v>314</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>316</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>317</v>
+      </c>
+      <c r="J36" t="s">
+        <v>318</v>
+      </c>
+      <c r="K36" t="s">
+        <v>319</v>
+      </c>
+      <c r="L36" t="s">
+        <v>320</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>321</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>322</v>
+      </c>
+      <c r="X36" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>325</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>326</v>
+      </c>
+      <c r="J37" t="s">
+        <v>327</v>
+      </c>
+      <c r="K37" t="s">
+        <v>328</v>
+      </c>
+      <c r="L37" t="s">
+        <v>329</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>330</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>331</v>
+      </c>
+      <c r="J38" t="s">
+        <v>332</v>
+      </c>
+      <c r="K38" t="s">
+        <v>333</v>
+      </c>
+      <c r="L38" t="s">
+        <v>334</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>2</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>335</v>
+      </c>
+      <c r="X38" t="s">
+        <v>336</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>339</v>
+      </c>
+      <c r="J39" t="s">
+        <v>340</v>
+      </c>
+      <c r="K39" t="s">
+        <v>341</v>
+      </c>
+      <c r="L39" t="s">
+        <v>342</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>343</v>
+      </c>
+      <c r="O39" t="s">
+        <v>63</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>344</v>
+      </c>
+      <c r="X39" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>347</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>348</v>
+      </c>
+      <c r="J40" t="s">
+        <v>349</v>
+      </c>
+      <c r="K40" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" t="s">
+        <v>351</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>352</v>
+      </c>
+      <c r="X40" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>355</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>356</v>
+      </c>
+      <c r="J41" t="s">
+        <v>357</v>
+      </c>
+      <c r="K41" t="s">
+        <v>358</v>
+      </c>
+      <c r="L41" t="s">
+        <v>359</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>360</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>361</v>
+      </c>
+      <c r="X41" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>364</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>365</v>
+      </c>
+      <c r="J42" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" t="s">
+        <v>367</v>
+      </c>
+      <c r="L42" t="s">
+        <v>368</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>369</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>370</v>
+      </c>
+      <c r="X42" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>373</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>374</v>
+      </c>
+      <c r="J43" t="s">
+        <v>375</v>
+      </c>
+      <c r="K43" t="s">
+        <v>376</v>
+      </c>
+      <c r="L43" t="s">
+        <v>377</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>378</v>
+      </c>
+      <c r="X43" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>381</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>382</v>
+      </c>
+      <c r="J44" t="s">
+        <v>383</v>
+      </c>
+      <c r="K44" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" t="s">
+        <v>385</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>386</v>
+      </c>
+      <c r="O44" t="s">
+        <v>80</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>387</v>
+      </c>
+      <c r="X44" t="s">
+        <v>388</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>390</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>391</v>
+      </c>
+      <c r="J45" t="s">
+        <v>392</v>
+      </c>
+      <c r="K45" t="s">
+        <v>393</v>
+      </c>
+      <c r="L45" t="s">
+        <v>394</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>395</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>396</v>
+      </c>
+      <c r="X45" t="s">
+        <v>397</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>399</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>400</v>
+      </c>
+      <c r="J46" t="s">
+        <v>401</v>
+      </c>
+      <c r="K46" t="s">
+        <v>402</v>
+      </c>
+      <c r="L46" t="s">
+        <v>403</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>403</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_231.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_231.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="618">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r595614464-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>107863</t>
+  </si>
+  <si>
+    <t>595614464</t>
+  </si>
+  <si>
+    <t>07/12/2018</t>
+  </si>
+  <si>
+    <t>Ms. Cole</t>
+  </si>
+  <si>
+    <t>Excellent customer service Clean Rooms, Customers are friendly also Peacefull environment love this place will recommend it to anyone that want to get a great experience. Work out room is good to very quiteMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2018</t>
+  </si>
+  <si>
+    <t>Excellent customer service Clean Rooms, Customers are friendly also Peacefull environment love this place will recommend it to anyone that want to get a great experience. Work out room is good to very quiteMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r548408536-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>548408536</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Great location, clean rooms and friendly staff. The rooms are large and have fully equipped kitchens. I would stay here again and I recommend it to travelers.the hotel is also pet friendly.extended stay America MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 22, 2017</t>
+  </si>
+  <si>
+    <t>Great location, clean rooms and friendly staff. The rooms are large and have fully equipped kitchens. I would stay here again and I recommend it to travelers.the hotel is also pet friendly.extended stay America More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r593295887-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>107863</t>
-  </si>
-  <si>
     <t>593295887</t>
   </si>
   <si>
@@ -174,16 +231,13 @@
     <t>I wasn't familiar with the area but after a couple days of talking to the staff i felt like i had been here a year after consulting with the manager Victoria and front desk clerk desire. They made my stay more comfortable than any of my other business trips i'll definitely stay here every venture to texas. the amenities were all in working order and the room was great with a beautiful view. One thing i don't like about a business is when excuses are given and i can honestly say this hotel staff runs a nice program and there were no excuses needed. However they could use more kitchen utensils lol' maybe it was just because they were fully booked you never know, but great establishment.MoreShow less</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded 5 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 5 weeks ago</t>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
   </si>
   <si>
     <t>I wasn't familiar with the area but after a couple days of talking to the staff i felt like i had been here a year after consulting with the manager Victoria and front desk clerk desire. They made my stay more comfortable than any of my other business trips i'll definitely stay here every venture to texas. the amenities were all in working order and the room was great with a beautiful view. One thing i don't like about a business is when excuses are given and i can honestly say this hotel staff runs a nice program and there were no excuses needed. However they could use more kitchen utensils lol' maybe it was just because they were fully booked you never know, but great establishment.More</t>
@@ -243,6 +297,45 @@
     <t>Helpful receptionist very hands on if there is any problem super charismatic makes you feel right at home . Highly Recommend this place for anyone needing somewhere to stay . . I give it 5 stars . Thank you hotel!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r571267091-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571267091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My stay </t>
+  </si>
+  <si>
+    <t>Loved this place!! Excellent service! Very nice rooms &amp; the employees, breakfast can improve a little but other than that it was good. The staff is friendly,specially the front desk lady i think her name was dani! Very profesional &amp; super nice. Will definitely come back!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Loved this place!! Excellent service! Very nice rooms &amp; the employees, breakfast can improve a little but other than that it was good. The staff is friendly,specially the front desk lady i think her name was dani! Very profesional &amp; super nice. Will definitely come back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r571266924-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571266924</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location </t>
+  </si>
+  <si>
+    <t>This has been so far the best hotel thanks to the front desk her name is dani she has made our experience here great she has been so helpful from all the concerns we had. Thank you i would be coming back! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>This has been so far the best hotel thanks to the front desk her name is dani she has made our experience here great she has been so helpful from all the concerns we had. Thank you i would be coming back! More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r571263558-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,9 +351,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 11, 2018</t>
   </si>
   <si>
@@ -321,6 +411,36 @@
     <t>Worth every penny!! Everyone so nice. Victoria gave me and my wife the best welcoming and very informative with things to do while visiting. She knew her stuff!  We had a blast with our stay. Can not wait to come back.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r566916598-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566916598</t>
+  </si>
+  <si>
+    <t>Best location by far!!</t>
+  </si>
+  <si>
+    <t>Love this location. Staff very friendly and helpful. Had plenty of room for me and the kids. So much to do In the area. Very close to everything. Parking is not to bad either. Will come back always. MoreShow less</t>
+  </si>
+  <si>
+    <t>Love this location. Staff very friendly and helpful. Had plenty of room for me and the kids. So much to do In the area. Very close to everything. Parking is not to bad either. Will come back always. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r566911917-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566911917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best stay </t>
+  </si>
+  <si>
+    <t>Peace full rest enjoyed very relaxed wife n I had a very nice stay n staff was awesomeWould recommend to all our friendsClean n comfortable n all around enjoyed the stayWill tell all how great the stay wasMoreShow less</t>
+  </si>
+  <si>
+    <t>Peace full rest enjoyed very relaxed wife n I had a very nice stay n staff was awesomeWould recommend to all our friendsClean n comfortable n all around enjoyed the stayWill tell all how great the stay wasMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r566654699-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -393,6 +513,54 @@
     <t>If you enjoy mildewed hallways, constant smell of weed everywhere, side doors propped open at night letting in strangers, partying until 4AM and no one ever at the front desk, well then this is the place for you.I really enjoyed a location with a kitchen with literally not a single utensil, plate, bowl, rag, towel etc in it.  It made it very convenient to cook.  Oh and of course the front desk doesn't even have half the things you need if you go down and ask.  Don't be a fool and think you actually need these things in a kitchenette. This place is an utter joke.I highly advise to spend your hard earned money elsewhere.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r562324835-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562324835</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>On behalf of my team, our sfay in the Extended stay Ameria on 2424 sam houston pkway by westheimer was indeed awesom and we will like to repeat this in any of our future visit to the state. At first we couldnt get a non smokimg room reason wss because all the non smoking rooms were not available upon our arrival but it was later sorted out.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded February 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 24, 2018</t>
+  </si>
+  <si>
+    <t>On behalf of my team, our sfay in the Extended stay Ameria on 2424 sam houston pkway by westheimer was indeed awesom and we will like to repeat this in any of our future visit to the state. At first we couldnt get a non smokimg room reason wss because all the non smoking rooms were not available upon our arrival but it was later sorted out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r558841461-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>558841461</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>eh</t>
+  </si>
+  <si>
+    <t>I was in a non-smoking room and the whole floor smelled like smoke, and my clothing smelled like smoke when I left. The desk office attendants were almost never present. It was noisy at night, but I’ve definitely been to noisier hotels. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>I was in a non-smoking room and the whole floor smelled like smoke, and my clothing smelled like smoke when I left. The desk office attendants were almost never present. It was noisy at night, but I’ve definitely been to noisier hotels. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r538909168-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -471,6 +639,57 @@
     <t>We had to wait to check in because minor problems in The staff was friendly. THe room was great for the price and location to other venues. Overall we had a great stay. THe breakfast was quick and fast..More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r493630642-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>493630642</t>
+  </si>
+  <si>
+    <t>06/16/2017</t>
+  </si>
+  <si>
+    <t>Great Two day stay.</t>
+  </si>
+  <si>
+    <t>I had to stay in Houston for a couple of days. This place was great. It's in a nice, safe location. The property and facility is very clean, and well maintained. The staff was very polite, and made me feel welcome. I will be a repeat customer.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>I had to stay in Houston for a couple of days. This place was great. It's in a nice, safe location. The property and facility is very clean, and well maintained. The staff was very polite, and made me feel welcome. I will be a repeat customer.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r491976716-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491976716</t>
+  </si>
+  <si>
+    <t>06/10/2017</t>
+  </si>
+  <si>
+    <t>Helpful</t>
+  </si>
+  <si>
+    <t>Cesi and julia were very helpful.Everything was good except the fact that my room smelt like cigarettes although i asked for a non smoking room, my girlfriend didnt like that at all. The drinks in the vending maching is also overpriced i think. Apart from those, i liked everything else. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2017</t>
+  </si>
+  <si>
+    <t>Cesi and julia were very helpful.Everything was good except the fact that my room smelt like cigarettes although i asked for a non smoking room, my girlfriend didnt like that at all. The drinks in the vending maching is also overpriced i think. Apart from those, i liked everything else. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r476980766-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -489,9 +708,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>00esa, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 19, 2017</t>
   </si>
   <si>
@@ -546,6 +762,51 @@
     <t>This was my first time at an Extended Stay in over 10 years, it was nice and quite...a little too quite. i stood at the front desk for about 6 mins waiting, and each time i passed the first desk never saw not one person. Not sure if she was watching the door on video or was busy in the back but she was not visible.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r447310833-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447310833</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>Very comfortable</t>
+  </si>
+  <si>
+    <t>We are actually staying at the property now after relocating. Our suite was very clean. It has a full kitchen, stove ( not stove top) full size fridge, dishwasher and lots of counter space. Living area with TV sofa and chair as well as coffee and end tables. Front desk staff is very good. (Lexy) Accommodated my request to be near an exit on the first floor which was awesome.I would recommended this hotel to anyone.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded January 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2017</t>
+  </si>
+  <si>
+    <t>We are actually staying at the property now after relocating. Our suite was very clean. It has a full kitchen, stove ( not stove top) full size fridge, dishwasher and lots of counter space. Living area with TV sofa and chair as well as coffee and end tables. Front desk staff is very good. (Lexy) Accommodated my request to be near an exit on the first floor which was awesome.I would recommended this hotel to anyone.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r438742259-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438742259</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Don't recommend.  Bed was hard.  Service was poor.  No one at desk 11-7a.m. is ridiculous.  Doesn't reply to follow up emails.  Floors above were very noisy.  Only plus was the location happened to be close to the offices I was visiting.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r438147644-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -561,12 +822,6 @@
     <t>Horrible customer service, they will steal your money. had a broken toilet that they didn't fix the entire week I stayed there. Also the hotel doesn't have any sort of maintenance on the weekend, or so I was told. I've been calling them all week wasting my time trying to get a refund. Now they tell me they can't give me my money back and to me that's stealing my money because I didn't get what I paid for. They offered to change rooms at one point but who wants to have to pack and move at 11 pm after a ten hour work day. These people will lie, take your money, and they don't care about making the customers happy, don't stay here.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded December 12, 2016</t>
   </si>
   <si>
@@ -624,6 +879,45 @@
     <t>I have stayed here several times, and it's my Preferred ESA when I am in Houston. The rooms are always clean, even the regular Queen not the suites are roomier than alot of the other ESA. This one is convenient too if you wish to go downtown you can just walk to Westheimer and grab a bus which takes you straight there. The Manager Maria, Jose who was previously here and Emerson are always very Pleasant. As all hotels everyone has something different to say, but I've been here enough to know the consistency. Please keep Maria as Manager too because when you have a great staff the guest are better taken car. This location also has a nice pool and a convenient store/gas station that is safe to walk to any time day or night. As always thanks for a great stay see you guys again in a few days.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r383544023-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383544023</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Unpleasant / Poor Value</t>
+  </si>
+  <si>
+    <t>Room - first the wireless internet is so agonizingly slow, I cannot do any work or even check emails.  Repeated speed tests show less than 0.6 mbps of speed on multiple devices.  My phone is fasterRooms are a bit noisy and amenities are non-existent.  How about a channel guide - how hard is that?  spoon?  cup? ice bucket?Tried to check in early and the guy at the front desk treated me like I was trying to defraud him by even asking.  Was pretty rude and generally not helpful.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r341794218-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341794218</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Terrible experience</t>
+  </si>
+  <si>
+    <t>I was supposed to stay in this hotel for 6 months but after 2 weeks of experiencing the bad customer service I decided not to extend my stay (had to stay for a month because it was already paid). Since day one in the room, hot water was not working in the shower and it was freezing outside during January. We kept complaining to the staff downstairs and they kept promising that the issue will solved but with no luck. This is our 17th day in the hotel and the hot water is still not working!I don't know who's not doing their job but apparently there's a problem and 17 days without solving a minor issue at a hotel is a disaster and it doesn't deserve to be a hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>I was supposed to stay in this hotel for 6 months but after 2 weeks of experiencing the bad customer service I decided not to extend my stay (had to stay for a month because it was already paid). Since day one in the room, hot water was not working in the shower and it was freezing outside during January. We kept complaining to the staff downstairs and they kept promising that the issue will solved but with no luck. This is our 17th day in the hotel and the hot water is still not working!I don't know who's not doing their job but apparently there's a problem and 17 days without solving a minor issue at a hotel is a disaster and it doesn't deserve to be a hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r283477280-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -700,6 +994,48 @@
   </si>
   <si>
     <t>I have been staying at this location for a little over a year about every other week. The manager, Miss Maria Rodriquez and her staff has made me feel welcomed in every way. The hotel is situated in a great part of town so that I can conduct my business with ease. The rooms are always clean and all of the appliances work wonderfully. I would advise anyone coming to the Houston area to stay at this hotel. They truly make you feel like you have a home away from home here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r264482304-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>264482304</t>
+  </si>
+  <si>
+    <t>04/08/2015</t>
+  </si>
+  <si>
+    <t>Forget extended stay-1 night is 1 too many</t>
+  </si>
+  <si>
+    <t>Room was clean but looking shabby, and one tiny thing after another being wrong soon adds up to the impression of poorly managed, poorly maintained hotel on its last legs. No hangars in the closet, no ice bucket - but that makes sense since there's no ice machine. I found one vending machine after searching two floors but no bottled water. So I decided to settle for a 7-Up, the only noncaffinated option. Put in $2, pushed the 7-Up button, got an orange soda. No pen or note paper in the room. Excruciatingly slow wifi. TV remote didn't work. Tub wouldn't hold water unless I kept my heel pushing down on the stopper while bathing. Free breakfast = a bowl of fruit and a couple of cellophane wrapped muffins of indeterminate age. The list goes on and on, but this establishment should not.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 17, 2015</t>
+  </si>
+  <si>
+    <t>Room was clean but looking shabby, and one tiny thing after another being wrong soon adds up to the impression of poorly managed, poorly maintained hotel on its last legs. No hangars in the closet, no ice bucket - but that makes sense since there's no ice machine. I found one vending machine after searching two floors but no bottled water. So I decided to settle for a 7-Up, the only noncaffinated option. Put in $2, pushed the 7-Up button, got an orange soda. No pen or note paper in the room. Excruciatingly slow wifi. TV remote didn't work. Tub wouldn't hold water unless I kept my heel pushing down on the stopper while bathing. Free breakfast = a bowl of fruit and a couple of cellophane wrapped muffins of indeterminate age. The list goes on and on, but this establishment should not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r259836733-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>259836733</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Spring break</t>
+  </si>
+  <si>
+    <t>Air conditioner in my room had to be replaced during my visit,swimming pool out of order,in bathtub the water pressure so low it could not go out of the shower head,no coffee only tea/coffee bags or muffins nothing, had to wait, bathroom sink wouldn't drain water out due to stopper was unattached from under sink I crawled under and rigged it so it would drain. I'm not one to complain but problems occurred pretty much from the very beggining until the very end</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r240873064-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
@@ -774,6 +1110,42 @@
     <t>August 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r231601955-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>231601955</t>
+  </si>
+  <si>
+    <t>09/29/2014</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>this is the best extended stay I have used. friendly, clean, good value and easily accessible for my needs. comfort is a must with the amount of time I spend away from home and this hit the mark. very pleased.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r230009675-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>230009675</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Know it b4 u get it</t>
+  </si>
+  <si>
+    <t>Unless u were like me through priceline.  Hotel retail for over 100 got it for a little less than half thay.  Stayed 3 nights and this is my first night and i am ready to leave review.  Stayed in room 404 non smoking.Good.  Spacious separate kitchen.  Location close to business also nearby chinatown gor ur asian eating and shopping.  Staff friendly, easy parking.Ok.  Older hotel, old decor l, amenities nothing special, def a 2 star quality.  Hotel lobby simple, stress on simple.  Kitchen w no pots pans plates and utensils or any kitchenware, unlike some others w ready to use kitchen stuff.  Flat screen in the small side, maybe 30 in?   If u watch tv from bed not happening here.Bad.  Coming out of elevator, mix smell of smoke, alcohol and puke.  Not a pleasant smell for sure.  Enter the room notices a small burnt mark on blanket.  Ac unit not cooling thoigh there is cool air, un9t right jext ro bed so very noisy.  If u r like me who prefers cool over warm, double chk b4 accetp room.  Shower is prob worst.  There is minimal shower.  U will wash for 10 minites and feel like body not yet washed.  Overall, it is jot the worst and definitely not a 5 star.....more like low 2 to 2.5.  Value but definitely dont pay over 65-70 for this one.  There are many betters for that rate.  Good luck.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>Unless u were like me through priceline.  Hotel retail for over 100 got it for a little less than half thay.  Stayed 3 nights and this is my first night and i am ready to leave review.  Stayed in room 404 non smoking.Good.  Spacious separate kitchen.  Location close to business also nearby chinatown gor ur asian eating and shopping.  Staff friendly, easy parking.Ok.  Older hotel, old decor l, amenities nothing special, def a 2 star quality.  Hotel lobby simple, stress on simple.  Kitchen w no pots pans plates and utensils or any kitchenware, unlike some others w ready to use kitchen stuff.  Flat screen in the small side, maybe 30 in?   If u watch tv from bed not happening here.Bad.  Coming out of elevator, mix smell of smoke, alcohol and puke.  Not a pleasant smell for sure.  Enter the room notices a small burnt mark on blanket.  Ac unit not cooling thoigh there is cool air, un9t right jext ro bed so very noisy.  If u r like me who prefers cool over warm, double chk b4 accetp room.  Shower is prob worst.  There is minimal shower.  U will wash for 10 minites and feel like body not yet washed.  Overall, it is jot the worst and definitely not a 5 star.....more like low 2 to 2.5.  Value but definitely dont pay over 65-70 for this one.  There are many betters for that rate.  Good luck.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r229071534-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -787,9 +1159,6 @@
   </si>
   <si>
     <t>We stayed here for the labor day weekend. When we arrived, the room is obviously messy, trash all over the place, kitchen, bathroom. we called the front desk, and yes, he does not know what to do, and of course the hotel is booked up so we can not change rooms. During our 2 nights stay, no manager ever apologized to us,  no one has ever cleaned our room!!!! This is the worst experience i ever had.</t>
-  </si>
-  <si>
-    <t>September 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r219875320-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
@@ -846,6 +1215,36 @@
 Save your time and go to a respectable hotel chain like the Holiday Inn...After a 16+ hour trip and much sleep needed, we expected to arrive at a decent hotel and have a cozy room awaiting. Upon arriving at approximately 6am, we not only were surprised that our room was given to another customer, but they tried giving us another room which was occupied!After hours of haggling back and forth with the managers of this hotel and nearby hotels as well as their horrible customer support line, they transferred us to the 3200 location.Upon arrival to this new location which was down the street, we spent an hour trying to get checked in because  the managers had no idea how to handle the situation. They ended up just giving us a room and resolving the issues later.When it was checkout time, I logged into our bank account and noticed they had charged us double the rate on top of what we had already paid for the hotel!We spoke to a rep at the 3200 location which was telling us they don't "honor" room transfer prices. We demanded to speak to a manager, which was understandable and processed our refund.This was the worst experience I have ever had with a hotel brand in my life. We even sent corporate an email over a week ago and they have yet to reply - this was expected.Save your time and go to a respectable hotel chain like the Holiday Inn which is nearby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r210212772-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>210212772</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>I love this place</t>
+  </si>
+  <si>
+    <t>The price was right for a last minute, 2 night stay. I had no problems with my room. The service workers were nice and the room and halls were clean. The breakfast was not much but I the coffee was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r209638284-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>209638284</t>
+  </si>
+  <si>
+    <t>06/09/2014</t>
+  </si>
+  <si>
+    <t>Dated but a Good Value</t>
+  </si>
+  <si>
+    <t>The price was right for a last minute, one night stay. The accommodations are clearly older and provide a full kitchen with sitting area.A few things to keep in mind: Located on the tollway (extra cost if driving in); kitchenware has to be requested--not even a cup in the room; has the old-style window unit AC that runs constantly; the free "breakfast" is fruit, instant oatmeal, and granola bars; the free wi-fi is basic and there is an upgrade fee for bandwidth that allows VPN and video speeds.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r205615067-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1296,51 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r195885376-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>195885376</t>
+  </si>
+  <si>
+    <t>03/02/2014</t>
+  </si>
+  <si>
+    <t>Great staff, comfortable room and central location.</t>
+  </si>
+  <si>
+    <t>Check in was very fast and friendly. The room I stayed in had a homely feeling as there was a fully equipped kitchen with dishes, pots, utensils, dishwasher, refrigerator, microwave and had two high chairs with a nice little counter. The queen sizee bed was comfortable and there was a small sofa with a pull out bed; probably not the most comfortable to sleep on but good if you have your child wanting to chill and watch some tv. Nice little table with two chairs for dining, iron and ironing board and nice mirrors.  I would probably recommend that you take a blanket like I did because the blanket was a thin, but apart from this the stay was good. I would recommend this hotel based on the service I received and the value for the money paid. MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in was very fast and friendly. The room I stayed in had a homely feeling as there was a fully equipped kitchen with dishes, pots, utensils, dishwasher, refrigerator, microwave and had two high chairs with a nice little counter. The queen sizee bed was comfortable and there was a small sofa with a pull out bed; probably not the most comfortable to sleep on but good if you have your child wanting to chill and watch some tv. Nice little table with two chairs for dining, iron and ironing board and nice mirrors.  I would probably recommend that you take a blanket like I did because the blanket was a thin, but apart from this the stay was good. I would recommend this hotel based on the service I received and the value for the money paid. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r187844302-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>187844302</t>
+  </si>
+  <si>
+    <t>12/16/2013</t>
+  </si>
+  <si>
+    <t>Safe Location,Comfortable Room,Nice Staff !</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 weeks during my journey to Houston with my husband. The hotel was in a convenient and safe location. Metro bus station is near here and you can take the bus No.82 and access the Galleria and downtown. There are many market such as Randalls, Target, Whole food Market and many restaurant near here. The room was very clean, with comfortable king size bed and linens. Rooms come with well equipped kitchen area and cooking utensils. Room cleaning was weekly .WiFi is OK.Free 'grab and go' breakfast was good. The staff is extremely friendly and helpful especially high energetic Chris and nice Dominique .We keep coming back because of the staff،rooms and location but we want discount this time!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded December 20, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 20, 2013</t>
+  </si>
+  <si>
+    <t>I stayed there for 3 weeks during my journey to Houston with my husband. The hotel was in a convenient and safe location. Metro bus station is near here and you can take the bus No.82 and access the Galleria and downtown. There are many market such as Randalls, Target, Whole food Market and many restaurant near here. The room was very clean, with comfortable king size bed and linens. Rooms come with well equipped kitchen area and cooking utensils. Room cleaning was weekly .WiFi is OK.Free 'grab and go' breakfast was good. The staff is extremely friendly and helpful especially high energetic Chris and nice Dominique .We keep coming back because of the staff،rooms and location but we want discount this time!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r184495435-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -912,9 +1356,6 @@
     <t>My family connection has brought me to Houston Texas few time a yesar. Most of the time I stayed in Extended Stay in Houston.My favour is the one located at 2424 West Sam Houston Parkway. The staff are wonderful , friendly, helpfuland alway taking extra step tohelp all the customer.The Manager Mr.Brandon Crossy even helped me to use my own Ipad. I'd like to give commendation  for all the staffs; especially "Maria" who has best listening skills and nice smiling.The property is clean, continential breakfast always fulfiled to customer request.MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded November 15, 2013</t>
   </si>
   <si>
@@ -969,6 +1410,48 @@
     <t>I got this place as a $39 Priceline Express Deal. Actually went to the wrong property (3200 W Sam Houston Fwy near Richmond) but they sent me to the property 'north of Westheimer'.  I accessed the property from Rogerdale.  There was a free breakfast but I left prior to 6 am and there is no business center or free lobby computer with internet.  I think I saw a small indoor pool and a fitness center by the lobby.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r168183397-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>168183397</t>
+  </si>
+  <si>
+    <t>07/19/2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this property on several occasions and have never been disappointed.  Its worth sharing this rare find of a property with other travelers. For visitors to the Houston area with needs for long term stay, check this property out.  Near shopping, grocery stores, etc.  If you are looking for a clean, quite and modern property with  great staff this is it.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded July 23, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this property on several occasions and have never been disappointed.  Its worth sharing this rare find of a property with other travelers. For visitors to the Houston area with needs for long term stay, check this property out.  Near shopping, grocery stores, etc.  If you are looking for a clean, quite and modern property with  great staff this is it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r167976621-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167976621</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Horrible! Should be Rated Zero</t>
+  </si>
+  <si>
+    <t>Although this property claims to have been updated, it is still dingy and depressing. The room was absolutely beyond horrible. Carpet was soaking wet in front of the inside air conditioning unit. Depressing hallways and old elevator. Noxious fumes. Did not sleep at all having to breathe toxic chemical smell. Made me wonder what in the world could have possibly caused that??? Refused to spend one more second there. Couldn't wait to leave. Got up very early. Checked out immediately--many days ahead of schedule. Will NEVER stay there again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Although this property claims to have been updated, it is still dingy and depressing. The room was absolutely beyond horrible. Carpet was soaking wet in front of the inside air conditioning unit. Depressing hallways and old elevator. Noxious fumes. Did not sleep at all having to breathe toxic chemical smell. Made me wonder what in the world could have possibly caused that??? Refused to spend one more second there. Couldn't wait to leave. Got up very early. Checked out immediately--many days ahead of schedule. Will NEVER stay there again!!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r162317477-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1521,57 @@
     <t>Grand staff, grand place, grand guest, doesn't feel like you're staying in a hotel. Nice to great shopping, outdoor fun, close to all the hot spots, good for conducting business, easy to make flights connections, safe location, clean rooms, team works hard to meet your requests, cold a/c, great for relaxing after work.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r156076825-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>156076825</t>
+  </si>
+  <si>
+    <t>03/30/2013</t>
+  </si>
+  <si>
+    <t>Very nice room</t>
+  </si>
+  <si>
+    <t>The room was very clean and nice. Issue with thermostat on the room heating/cooling system and it looked ugly with the plug they had going on. Front desk was very unfriendly. The location is a little rough with the area it's in. Would have preferred a safer looking parking lot, but nothing happened. There was an offer of a free amenity when I checked in and I was offered a basket of shaving razors to pick from.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded April 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2013</t>
+  </si>
+  <si>
+    <t>The room was very clean and nice. Issue with thermostat on the room heating/cooling system and it looked ugly with the plug they had going on. Front desk was very unfriendly. The location is a little rough with the area it's in. Would have preferred a safer looking parking lot, but nothing happened. There was an offer of a free amenity when I checked in and I was offered a basket of shaving razors to pick from.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r155665390-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>155665390</t>
+  </si>
+  <si>
+    <t>03/25/2013</t>
+  </si>
+  <si>
+    <t>Best ESA in Houston overall.  Stay here.</t>
+  </si>
+  <si>
+    <t>I needed a place for 2 months and researched / visited several ESAs.  I am not an employee of ESA, nor have friends or family there.  Just to clarify, this is a real review from a guest.  I liked this ESA because of its location, safety, and friendly staff.  After a few weeks, I don't regret my decision.  From the time I checked in, the staff has been top notch.  I am just a tired accountant who needs a quiet place to sleep after a long day of crunching numbers and dealing with clients.  This ESA has surpassed my expectations.  It has been recently renovated and is near many shopping centers.  Go two blocks and eat at "Lucky's Chinese," where for $10 you can have an awesome sushi / Chinese buffet.  Or get your car washed one block away for $10.  Etc, etc.  The location is awesome, safe and it only takes me around 20 - 25 minutes to get to downtown using the 10 freeway; tolls road would be even faster but I don't need them.  I really like my spacious room, the kitchen, and the air conditioner works quietly and doesn't awake me at night.  Only one issue, I am a little picky and my room had been smoked in (though not excessively) so I complained.  I received an email from the hotel manager promptly (Brandon).  I replied around 11 pm at night; to my surprise, Brandon started...I needed a place for 2 months and researched / visited several ESAs.  I am not an employee of ESA, nor have friends or family there.  Just to clarify, this is a real review from a guest.  I liked this ESA because of its location, safety, and friendly staff.  After a few weeks, I don't regret my decision.  From the time I checked in, the staff has been top notch.  I am just a tired accountant who needs a quiet place to sleep after a long day of crunching numbers and dealing with clients.  This ESA has surpassed my expectations.  It has been recently renovated and is near many shopping centers.  Go two blocks and eat at "Lucky's Chinese," where for $10 you can have an awesome sushi / Chinese buffet.  Or get your car washed one block away for $10.  Etc, etc.  The location is awesome, safe and it only takes me around 20 - 25 minutes to get to downtown using the 10 freeway; tolls road would be even faster but I don't need them.  I really like my spacious room, the kitchen, and the air conditioner works quietly and doesn't awake me at night.  Only one issue, I am a little picky and my room had been smoked in (though not excessively) so I complained.  I received an email from the hotel manager promptly (Brandon).  I replied around 11 pm at night; to my surprise, Brandon started responding to my concerns that same evening and arranged to have my carpet shampooed the next morning.  It was unbelievable service!  Brandon also offered to move me to another room.  I am not a VIP but I was certainly made to feel that way.  For the great service, friendly staff, renovated rooms, and caring management, this is the best ESA that I've stayed in and I give it five stars.  If my experience isn't five star service, I can't imagine what is.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 28, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2013</t>
+  </si>
+  <si>
+    <t>I needed a place for 2 months and researched / visited several ESAs.  I am not an employee of ESA, nor have friends or family there.  Just to clarify, this is a real review from a guest.  I liked this ESA because of its location, safety, and friendly staff.  After a few weeks, I don't regret my decision.  From the time I checked in, the staff has been top notch.  I am just a tired accountant who needs a quiet place to sleep after a long day of crunching numbers and dealing with clients.  This ESA has surpassed my expectations.  It has been recently renovated and is near many shopping centers.  Go two blocks and eat at "Lucky's Chinese," where for $10 you can have an awesome sushi / Chinese buffet.  Or get your car washed one block away for $10.  Etc, etc.  The location is awesome, safe and it only takes me around 20 - 25 minutes to get to downtown using the 10 freeway; tolls road would be even faster but I don't need them.  I really like my spacious room, the kitchen, and the air conditioner works quietly and doesn't awake me at night.  Only one issue, I am a little picky and my room had been smoked in (though not excessively) so I complained.  I received an email from the hotel manager promptly (Brandon).  I replied around 11 pm at night; to my surprise, Brandon started...I needed a place for 2 months and researched / visited several ESAs.  I am not an employee of ESA, nor have friends or family there.  Just to clarify, this is a real review from a guest.  I liked this ESA because of its location, safety, and friendly staff.  After a few weeks, I don't regret my decision.  From the time I checked in, the staff has been top notch.  I am just a tired accountant who needs a quiet place to sleep after a long day of crunching numbers and dealing with clients.  This ESA has surpassed my expectations.  It has been recently renovated and is near many shopping centers.  Go two blocks and eat at "Lucky's Chinese," where for $10 you can have an awesome sushi / Chinese buffet.  Or get your car washed one block away for $10.  Etc, etc.  The location is awesome, safe and it only takes me around 20 - 25 minutes to get to downtown using the 10 freeway; tolls road would be even faster but I don't need them.  I really like my spacious room, the kitchen, and the air conditioner works quietly and doesn't awake me at night.  Only one issue, I am a little picky and my room had been smoked in (though not excessively) so I complained.  I received an email from the hotel manager promptly (Brandon).  I replied around 11 pm at night; to my surprise, Brandon started responding to my concerns that same evening and arranged to have my carpet shampooed the next morning.  It was unbelievable service!  Brandon also offered to move me to another room.  I am not a VIP but I was certainly made to feel that way.  For the great service, friendly staff, renovated rooms, and caring management, this is the best ESA that I've stayed in and I give it five stars.  If my experience isn't five star service, I can't imagine what is.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r154452866-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1077,9 +1611,6 @@
     <t>My wife and I are here for 5 weeks, and this place is excellent.  Overall, it is quiet, with good service when needed, and clean.  We had one minor issue with a leaky faucet, and it was repaired the next day.Parking is free, and the location is great as well.  I recommend this place if you need a place for a week or longer.MoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded March 13, 2013</t>
   </si>
   <si>
@@ -1113,6 +1644,57 @@
     <t>As a buisness traveler, I stay at many hotels. In this area I in the past stayed at the property down the street from this location. I decided to try this Extended Stay America because I was informed they went through a remodel recently. I have to say I was very impressed. The rooms are a nice size and the hotel over all is very clean. The staff there is very welcoming as well. I believe the very nice gentleman that checked me in was by the name of Jack or Jake. He did a great job at letting me know what the property offered and politely told me to let him know if I needed anything else on my stay. When an issue arose with my room Bryan was very helpful in getting maintenance up there right away to help fix the problem. The maintenance man was very nice and quick at getting the problem solved. The breakfast was just like always very well displayed and nice. In the future with my trips to Houston this property will be my new home away from home. I strongly recommend giving this hotel a try on your next trip. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r151610918-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>151610918</t>
+  </si>
+  <si>
+    <t>02/07/2013</t>
+  </si>
+  <si>
+    <t>Great Stay at 2424 W Sam Houston Extended Stay America</t>
+  </si>
+  <si>
+    <t>An excellent manager Brian Schwab. Helpful, friendly and competent staff. Good coffee and fresh fruit and clean rooms and towels. We will suggest this facility to our friends. Response to maintenance requests, were immediate!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded February 19, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2013</t>
+  </si>
+  <si>
+    <t>An excellent manager Brian Schwab. Helpful, friendly and competent staff. Good coffee and fresh fruit and clean rooms and towels. We will suggest this facility to our friends. Response to maintenance requests, were immediate!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r150149249-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150149249</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>Great place= will stay again!</t>
+  </si>
+  <si>
+    <t>We actually had reservations at the property down the street but they told us they were overbooked and moved us to this location and it would be an upgrade. We were so impressed!!The room was huge with a seperate kitchen. It was very clean and quiet. Being able to exit on the street out back made it very convenient to get to.  Everyone was very nice and we will definetly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded January 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 21, 2013</t>
+  </si>
+  <si>
+    <t>We actually had reservations at the property down the street but they told us they were overbooked and moved us to this location and it would be an upgrade. We were so impressed!!The room was huge with a seperate kitchen. It was very clean and quiet. Being able to exit on the street out back made it very convenient to get to.  Everyone was very nice and we will definetly stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r150063192-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1128,15 +1710,6 @@
     <t>Extended stay hotels can be hit or miss - this Extended Stay America location is not a hit - it is a homerun! The location was recently renovated and the rooms still have a "new car" feeling to them. The room was enormous. The bed was very comfortable - brand new, pillow top, queen - linens were basic, like all Extended Stay locations, but adequate for my needs. My room had a new couch and chair (pleather?) - both were easy to relax in. My kitchen had a range with four burners and an oven (standard pot and pan provided, but no baking/broiling kitchenware), new microwave, medium sized fridge (it is a small full sized fridge), sink, and a half-dishwasher. Bathroom was clean with a new tub/shower. Staff was great at check-in. No one wants to live in a hotel, but if I had to live in a hotel, this would be the location I would want to live at. I can't think of enough good things to say about this location. Bid on Priceline - this hotel is in the 2* category, but I would rate it as a 4* on the Priceline scale. You can't beat the value - I bid $32/night ($22+$10/night bonus cash).MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
-    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded January 21, 2013</t>
-  </si>
-  <si>
-    <t>Responded January 21, 2013</t>
-  </si>
-  <si>
     <t>Extended stay hotels can be hit or miss - this Extended Stay America location is not a hit - it is a homerun! The location was recently renovated and the rooms still have a "new car" feeling to them. The room was enormous. The bed was very comfortable - brand new, pillow top, queen - linens were basic, like all Extended Stay locations, but adequate for my needs. My room had a new couch and chair (pleather?) - both were easy to relax in. My kitchen had a range with four burners and an oven (standard pot and pan provided, but no baking/broiling kitchenware), new microwave, medium sized fridge (it is a small full sized fridge), sink, and a half-dishwasher. Bathroom was clean with a new tub/shower. Staff was great at check-in. No one wants to live in a hotel, but if I had to live in a hotel, this would be the location I would want to live at. I can't think of enough good things to say about this location. Bid on Priceline - this hotel is in the 2* category, but I would rate it as a 4* on the Priceline scale. You can't beat the value - I bid $32/night ($22+$10/night bonus cash).More</t>
   </si>
   <si>
@@ -1191,6 +1764,60 @@
     <t>rooms updated.. new flat screens..wood floors..new carpet just looks great with full size kitchen and now offer a breakfast which is easy &amp; perfect for kiddos! all customer service at this location are great and always friendly! i will definitely use them again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r143070676-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>143070676</t>
+  </si>
+  <si>
+    <t>10/17/2012</t>
+  </si>
+  <si>
+    <t>Fantastic Accomdations and Service</t>
+  </si>
+  <si>
+    <t>I was greeted by a friendly and professional staff. I stayed at this hotel for an extended period (over 1 year) and their courtesy and professionalism continued everyday for my entire stay. Newly renovated rooms and an outstanding housekeeping staff made my stay a pleasure. Extremly clean environment and a maintenance staff that continually kept everything in working order. Hands down, the best extended hotel stay I've experienced. I would recommend this hotel whether it's for a weekend, a week or longer. More than reasonable rates for a large room with a full kitchen, great cable and above average internet connection. Maricella (Manager) and Leesa are the most professional hotel staff I have ever encoutered (and I am a seasoned traveller). Maria and her houskeeping staff pay attention to every detail making a big difference in the comfort of my stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded October 20, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 20, 2012</t>
+  </si>
+  <si>
+    <t>I was greeted by a friendly and professional staff. I stayed at this hotel for an extended period (over 1 year) and their courtesy and professionalism continued everyday for my entire stay. Newly renovated rooms and an outstanding housekeeping staff made my stay a pleasure. Extremly clean environment and a maintenance staff that continually kept everything in working order. Hands down, the best extended hotel stay I've experienced. I would recommend this hotel whether it's for a weekend, a week or longer. More than reasonable rates for a large room with a full kitchen, great cable and above average internet connection. Maricella (Manager) and Leesa are the most professional hotel staff I have ever encoutered (and I am a seasoned traveller). Maria and her houskeeping staff pay attention to every detail making a big difference in the comfort of my stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r142004078-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>142004078</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff</t>
+  </si>
+  <si>
+    <t>I would like to say that my stay at the Studio Plus was truly a remarkable experience. My stay was close to 12 months and everyday I was treated with 150% comfort.  The Manager and her staff are very organized, understanding, respectful and accomodating to all of thier customers  needs. Maricela communication skills are amazing especially during the constuction period that took place 2 months ago.  She was able to move me from floor to floor always giving me the best rooms and services. You did not realize there was construction and renovation going on most of the time.  I would highly recommend the Studio Plus to anyone that plans to have a long stay or just for a couple of nights.Maricela I will truly miss you and your wonderful staff and I promise I will always stop in to say hello to all of you It is hard to forget good people that take care of you in life and that is exactly would you did for me.Thanks againTonyMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Saints01Houston, Manager at Extended Stay America - Houston - Westchase - Westheimer, responded to this reviewResponded October 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2012</t>
+  </si>
+  <si>
+    <t>I would like to say that my stay at the Studio Plus was truly a remarkable experience. My stay was close to 12 months and everyday I was treated with 150% comfort.  The Manager and her staff are very organized, understanding, respectful and accomodating to all of thier customers  needs. Maricela communication skills are amazing especially during the constuction period that took place 2 months ago.  She was able to move me from floor to floor always giving me the best rooms and services. You did not realize there was construction and renovation going on most of the time.  I would highly recommend the Studio Plus to anyone that plans to have a long stay or just for a couple of nights.Maricela I will truly miss you and your wonderful staff and I promise I will always stop in to say hello to all of you It is hard to forget good people that take care of you in life and that is exactly would you did for me.Thanks againTonyMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r136017569-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
   </si>
   <si>
@@ -1258,6 +1885,21 @@
   </si>
   <si>
     <t>I'd like to recommend this hotel as there are many positives. The location is convenient. The staff were pleasant. Although not plush, my room was well appointed, with a complete kitchen - spotless and well equipped - living/dining area and sleeping area with a queen bed that wasn't uncomfortable. The one thing holding me back is my room had a pretty strong musty/mildew smell. I probably should have asked for a different room but I figured I was only there for one night why bother. I don't know if it was just my room or a general problem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d107863-r5440822-Extended_Stay_America_Houston_Westchase_Westheimer-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>5440822</t>
+  </si>
+  <si>
+    <t>07/07/2006</t>
+  </si>
+  <si>
+    <t>Good place to stay.</t>
+  </si>
+  <si>
+    <t>Great administration. The manager and the front desk employees are always disposed to help. Nice Stay.</t>
   </si>
 </sst>
 </file>
@@ -1801,15 +2443,11 @@
         <v>53</v>
       </c>
       <c r="P2" t="s"/>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -1857,13 +2495,13 @@
         <v>61</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1875,13 +2513,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
         <v>64</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -1897,37 +2535,45 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
         <v>71</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
       <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1966,22 +2612,22 @@
         <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1993,13 +2639,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
@@ -2015,7 +2661,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2024,42 +2670,28 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
-      <c r="N6" t="s">
-        <v>89</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>5</v>
-      </c>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>5</v>
-      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -2098,22 +2730,22 @@
         <v>94</v>
       </c>
       <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
         <v>95</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>96</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>97</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2125,13 +2757,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
         <v>99</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -2147,58 +2779,52 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
         <v>101</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>103</v>
       </c>
-      <c r="K8" t="s">
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
         <v>104</v>
       </c>
-      <c r="L8" t="s">
-        <v>105</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O8" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>4</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="X8" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="Y8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9">
@@ -2214,31 +2840,35 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+      <c r="K9" t="s">
+        <v>108</v>
+      </c>
+      <c r="L9" t="s">
         <v>109</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="J9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" t="s">
-        <v>112</v>
-      </c>
-      <c r="L9" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
+      <c r="O9" t="s">
+        <v>104</v>
+      </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
@@ -2249,13 +2879,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
@@ -2271,56 +2901,62 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>114</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" t="s">
         <v>117</v>
       </c>
-      <c r="G10" t="s">
-        <v>46</v>
-      </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="L10" t="s">
         <v>118</v>
       </c>
-      <c r="J10" t="s">
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>119</v>
       </c>
-      <c r="K10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L10" t="s">
-        <v>121</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
-        <v>79</v>
-      </c>
       <c r="O10" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
-      <c r="S10" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
+        <v>120</v>
+      </c>
+      <c r="X10" t="s">
+        <v>121</v>
+      </c>
+      <c r="Y10" t="s">
         <v>122</v>
-      </c>
-      <c r="X10" t="s">
-        <v>123</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11">
@@ -2336,62 +2972,52 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" t="s">
         <v>125</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>126</v>
       </c>
-      <c r="J11" t="s">
+      <c r="L11" t="s">
         <v>127</v>
       </c>
-      <c r="K11" t="s">
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O11" t="s">
+        <v>81</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
         <v>128</v>
       </c>
-      <c r="L11" t="s">
+      <c r="X11" t="s">
         <v>129</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="Y11" t="s">
         <v>130</v>
-      </c>
-      <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>5</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
-      <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="s">
-        <v>131</v>
-      </c>
-      <c r="X11" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="12">
@@ -2407,62 +3033,52 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>132</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" t="s">
         <v>134</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O12" t="s">
+        <v>104</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>128</v>
+      </c>
+      <c r="X12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Y12" t="s">
         <v>135</v>
-      </c>
-      <c r="J12" t="s">
-        <v>136</v>
-      </c>
-      <c r="K12" t="s">
-        <v>137</v>
-      </c>
-      <c r="L12" t="s">
-        <v>138</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3</v>
-      </c>
-      <c r="N12" t="s">
-        <v>139</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4</v>
-      </c>
-      <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="s">
-        <v>140</v>
-      </c>
-      <c r="X12" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="13">
@@ -2478,7 +3094,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2487,53 +3103,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J13" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="L13" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>80</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
-      <c r="R13" t="n">
-        <v>4</v>
-      </c>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
@@ -2549,7 +3155,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2558,43 +3164,49 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="O14" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
       <c r="R14" t="s"/>
       <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="X14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="Y14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
@@ -2610,7 +3222,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2619,43 +3231,39 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="J15" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="L15" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
-      <c r="N15" t="s">
-        <v>166</v>
-      </c>
-      <c r="O15" t="s">
-        <v>53</v>
-      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>154</v>
+      </c>
+      <c r="X15" t="s">
+        <v>155</v>
+      </c>
       <c r="Y15" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16">
@@ -2671,7 +3279,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2680,47 +3288,47 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="J16" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="K16" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="L16" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>110</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1</v>
+      </c>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="X16" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="Y16" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17">
@@ -2736,7 +3344,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2745,43 +3353,49 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="J17" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="K17" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="L17" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
       <c r="O17" t="s">
-        <v>182</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
@@ -2797,7 +3411,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2806,43 +3420,53 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>191</v>
+        <v>80</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
-      <c r="S18" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2</v>
+      </c>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="X18" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="Y18" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
@@ -2858,7 +3482,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2867,39 +3491,53 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="K19" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" t="s"/>
-      <c r="Q19" t="s"/>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>187</v>
+      </c>
+      <c r="X19" t="s">
+        <v>188</v>
+      </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
@@ -2915,7 +3553,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2924,49 +3562,53 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="O20" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="X20" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="Y20" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21">
@@ -2982,7 +3624,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2991,47 +3633,53 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="K21" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>104</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="n">
-        <v>5</v>
-      </c>
-      <c r="S21" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="X21" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="Y21" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22">
@@ -3047,7 +3695,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3056,30 +3704,30 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="J22" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="L22" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="O22" t="s">
         <v>53</v>
       </c>
-      <c r="P22" t="s"/>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
@@ -3092,13 +3740,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
@@ -3114,7 +3762,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3123,43 +3771,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>221</v>
+      </c>
+      <c r="X23" t="s">
+        <v>222</v>
+      </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24">
@@ -3175,7 +3823,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3184,43 +3832,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>3</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>230</v>
+      </c>
+      <c r="X24" t="s">
+        <v>231</v>
+      </c>
       <c r="Y24" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25">
@@ -3236,7 +3884,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3245,30 +3893,30 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J25" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" t="s">
+        <v>236</v>
+      </c>
+      <c r="L25" t="s">
         <v>237</v>
       </c>
-      <c r="K25" t="s">
-        <v>243</v>
-      </c>
-      <c r="L25" t="s">
-        <v>244</v>
-      </c>
       <c r="M25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="O25" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q25" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
@@ -3281,7 +3929,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26">
@@ -3297,7 +3945,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3306,43 +3954,47 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="O26" t="s">
-        <v>63</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>245</v>
+      </c>
+      <c r="X26" t="s">
+        <v>246</v>
+      </c>
       <c r="Y26" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
@@ -3358,54 +4010,52 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>250</v>
+      </c>
+      <c r="K27" t="s">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
         <v>252</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
         <v>253</v>
       </c>
-      <c r="J27" t="s">
-        <v>254</v>
-      </c>
-      <c r="K27" t="s">
-        <v>255</v>
-      </c>
-      <c r="L27" t="s">
-        <v>256</v>
-      </c>
-      <c r="M27" t="n">
-        <v>2</v>
-      </c>
-      <c r="N27" t="s">
-        <v>257</v>
-      </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>3</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s"/>
-      <c r="X27" t="s"/>
+      <c r="W27" t="s">
+        <v>254</v>
+      </c>
+      <c r="X27" t="s">
+        <v>255</v>
+      </c>
       <c r="Y27" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28">
@@ -3421,50 +4071,44 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>257</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>258</v>
+      </c>
+      <c r="J28" t="s">
         <v>259</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>260</v>
       </c>
-      <c r="J28" t="s">
+      <c r="L28" t="s">
         <v>261</v>
       </c>
-      <c r="K28" t="s">
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
         <v>262</v>
       </c>
-      <c r="L28" t="s">
-        <v>263</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>264</v>
-      </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3472,7 +4116,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
@@ -3488,31 +4132,35 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
+        <v>263</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>265</v>
+      </c>
+      <c r="K29" t="s">
         <v>266</v>
       </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L29" t="s">
         <v>267</v>
       </c>
-      <c r="J29" t="s">
-        <v>268</v>
-      </c>
-      <c r="K29" t="s">
-        <v>269</v>
-      </c>
-      <c r="L29" t="s">
-        <v>270</v>
-      </c>
       <c r="M29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N29" t="s"/>
-      <c r="O29" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N29" t="s">
+        <v>262</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
@@ -3522,8 +4170,12 @@
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>268</v>
+      </c>
+      <c r="X29" t="s">
+        <v>269</v>
+      </c>
       <c r="Y29" t="s">
         <v>270</v>
       </c>
@@ -3562,13 +4214,13 @@
         <v>275</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
         <v>276</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3579,10 +4231,14 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>277</v>
+      </c>
+      <c r="X30" t="s">
+        <v>278</v>
+      </c>
       <c r="Y30" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31">
@@ -3598,7 +4254,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3607,49 +4263,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O31" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>3</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="32">
@@ -3665,7 +4311,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3674,51 +4320,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J32" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K32" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L32" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="O32" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
+        <v>2</v>
+      </c>
+      <c r="S32" t="n">
         <v>3</v>
-      </c>
-      <c r="S32" t="n">
-        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>289</v>
-      </c>
-      <c r="X32" t="s">
-        <v>290</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
         <v>291</v>
       </c>
@@ -3736,7 +4374,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3745,53 +4383,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
-      </c>
-      <c r="P33" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>4</v>
-      </c>
-      <c r="R33" t="n">
-        <v>4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>289</v>
-      </c>
-      <c r="X33" t="s">
-        <v>290</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
@@ -3807,7 +4431,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3816,53 +4440,49 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="P34" t="n">
         <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
@@ -3878,7 +4498,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3887,38 +4507,32 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="J35" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K35" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="L35" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
-        <v>4</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
         <v>5</v>
@@ -3927,13 +4541,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="X35" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Y35" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36">
@@ -3949,7 +4563,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3958,53 +4572,49 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="K36" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>5</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="X36" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Y36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
@@ -4020,7 +4630,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4029,49 +4639,43 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="J37" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
-      <c r="W37" t="s"/>
-      <c r="X37" t="s"/>
+      <c r="W37" t="s">
+        <v>332</v>
+      </c>
+      <c r="X37" t="s">
+        <v>333</v>
+      </c>
       <c r="Y37" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="38">
@@ -4087,7 +4691,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4096,49 +4700,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>2</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>3</v>
-      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>104</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>335</v>
-      </c>
-      <c r="X38" t="s">
-        <v>336</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
@@ -4154,7 +4748,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4163,51 +4757,41 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="J39" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K39" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L39" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O39" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>344</v>
-      </c>
-      <c r="X39" t="s">
-        <v>345</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
         <v>346</v>
       </c>
@@ -4248,35 +4832,29 @@
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>4</v>
-      </c>
+      <c r="N40" t="s">
+        <v>352</v>
+      </c>
+      <c r="O40" t="s">
+        <v>71</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>352</v>
-      </c>
-      <c r="X40" t="s">
-        <v>353</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="41">
@@ -4292,62 +4870,52 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>353</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>354</v>
+      </c>
+      <c r="J41" t="s">
+        <v>349</v>
+      </c>
+      <c r="K41" t="s">
         <v>355</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>356</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
         <v>357</v>
       </c>
-      <c r="K41" t="s">
-        <v>358</v>
-      </c>
-      <c r="L41" t="s">
-        <v>359</v>
-      </c>
-      <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s">
-        <v>360</v>
-      </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>361</v>
-      </c>
-      <c r="X41" t="s">
-        <v>362</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42">
@@ -4363,7 +4931,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4372,53 +4940,45 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="J42" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="K42" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P42" t="s"/>
       <c r="Q42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>370</v>
-      </c>
-      <c r="X42" t="s">
-        <v>371</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
     </row>
     <row r="43">
@@ -4434,7 +4994,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4443,49 +5003,39 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="J43" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="K43" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="L43" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>5</v>
-      </c>
-      <c r="R43" t="n">
-        <v>5</v>
-      </c>
-      <c r="S43" t="n">
-        <v>5</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>368</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>5</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s">
-        <v>378</v>
-      </c>
-      <c r="X43" t="s">
-        <v>379</v>
-      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
@@ -4501,7 +5051,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4510,53 +5060,43 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="J44" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="O44" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>387</v>
-      </c>
-      <c r="X44" t="s">
-        <v>388</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="45">
@@ -4572,7 +5112,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4581,53 +5121,45 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="L45" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="s"/>
       <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>396</v>
-      </c>
-      <c r="X45" t="s">
-        <v>397</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
     </row>
     <row r="46">
@@ -4643,7 +5175,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4652,22 +5184,26 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="J46" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="K46" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="L46" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s"/>
-      <c r="O46" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>387</v>
+      </c>
+      <c r="O46" t="s">
+        <v>71</v>
+      </c>
       <c r="P46" t="n">
         <v>2</v>
       </c>
@@ -4678,17 +5214,2116 @@
         <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>389</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>390</v>
+      </c>
+      <c r="J47" t="s">
+        <v>391</v>
+      </c>
+      <c r="K47" t="s">
+        <v>392</v>
+      </c>
+      <c r="L47" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>387</v>
+      </c>
+      <c r="O47" t="s">
+        <v>81</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>394</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>395</v>
+      </c>
+      <c r="J48" t="s">
+        <v>396</v>
+      </c>
+      <c r="K48" t="s">
+        <v>397</v>
+      </c>
+      <c r="L48" t="s">
+        <v>398</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>3</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>399</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>400</v>
+      </c>
+      <c r="J49" t="s">
+        <v>401</v>
+      </c>
+      <c r="K49" t="s">
+        <v>402</v>
+      </c>
+      <c r="L49" t="s">
         <v>403</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>404</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>405</v>
+      </c>
+      <c r="J50" t="s">
+        <v>406</v>
+      </c>
+      <c r="K50" t="s">
+        <v>407</v>
+      </c>
+      <c r="L50" t="s">
+        <v>408</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="s">
+        <v>409</v>
+      </c>
+      <c r="O50" t="s">
+        <v>71</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>410</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>411</v>
+      </c>
+      <c r="J51" t="s">
+        <v>412</v>
+      </c>
+      <c r="K51" t="s">
+        <v>413</v>
+      </c>
+      <c r="L51" t="s">
+        <v>414</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>415</v>
+      </c>
+      <c r="O51" t="s">
+        <v>104</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>4</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>416</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>417</v>
+      </c>
+      <c r="J52" t="s">
+        <v>418</v>
+      </c>
+      <c r="K52" t="s">
+        <v>419</v>
+      </c>
+      <c r="L52" t="s">
+        <v>420</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>423</v>
+      </c>
+      <c r="J53" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>427</v>
+      </c>
+      <c r="O53" t="s">
+        <v>81</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>428</v>
+      </c>
+      <c r="X53" t="s">
+        <v>429</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>431</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>432</v>
+      </c>
+      <c r="J54" t="s">
+        <v>433</v>
+      </c>
+      <c r="K54" t="s">
+        <v>434</v>
+      </c>
+      <c r="L54" t="s">
+        <v>435</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>427</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>436</v>
+      </c>
+      <c r="X54" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>427</v>
+      </c>
+      <c r="O55" t="s">
+        <v>71</v>
+      </c>
+      <c r="P55" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>436</v>
+      </c>
+      <c r="X55" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>445</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>446</v>
+      </c>
+      <c r="J56" t="s">
+        <v>447</v>
+      </c>
+      <c r="K56" t="s">
+        <v>448</v>
+      </c>
+      <c r="L56" t="s">
+        <v>449</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>450</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>451</v>
+      </c>
+      <c r="X56" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>454</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>455</v>
+      </c>
+      <c r="J57" t="s">
+        <v>456</v>
+      </c>
+      <c r="K57" t="s">
+        <v>442</v>
+      </c>
+      <c r="L57" t="s">
+        <v>457</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>458</v>
+      </c>
+      <c r="O57" t="s">
+        <v>104</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>459</v>
+      </c>
+      <c r="X57" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>462</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>463</v>
+      </c>
+      <c r="J58" t="s">
+        <v>464</v>
+      </c>
+      <c r="K58" t="s">
+        <v>465</v>
+      </c>
+      <c r="L58" t="s">
+        <v>466</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>458</v>
+      </c>
+      <c r="O58" t="s">
+        <v>71</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>459</v>
+      </c>
+      <c r="X58" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>468</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>469</v>
+      </c>
+      <c r="J59" t="s">
+        <v>470</v>
+      </c>
+      <c r="K59" t="s">
+        <v>471</v>
+      </c>
+      <c r="L59" t="s">
+        <v>472</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>473</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>474</v>
+      </c>
+      <c r="X59" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>477</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>478</v>
+      </c>
+      <c r="J60" t="s">
+        <v>479</v>
+      </c>
+      <c r="K60" t="s">
+        <v>480</v>
+      </c>
+      <c r="L60" t="s">
+        <v>481</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>482</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>483</v>
+      </c>
+      <c r="X60" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>486</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>487</v>
+      </c>
+      <c r="J61" t="s">
+        <v>488</v>
+      </c>
+      <c r="K61" t="s">
+        <v>489</v>
+      </c>
+      <c r="L61" t="s">
+        <v>490</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>482</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>491</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>492</v>
+      </c>
+      <c r="J62" t="s">
+        <v>493</v>
+      </c>
+      <c r="K62" t="s">
+        <v>494</v>
+      </c>
+      <c r="L62" t="s">
+        <v>495</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>496</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>2</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>497</v>
+      </c>
+      <c r="X62" t="s">
+        <v>498</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>500</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>501</v>
+      </c>
+      <c r="J63" t="s">
+        <v>502</v>
+      </c>
+      <c r="K63" t="s">
+        <v>503</v>
+      </c>
+      <c r="L63" t="s">
+        <v>504</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>505</v>
+      </c>
+      <c r="X63" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>508</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>509</v>
+      </c>
+      <c r="J64" t="s">
+        <v>510</v>
+      </c>
+      <c r="K64" t="s">
+        <v>511</v>
+      </c>
+      <c r="L64" t="s">
+        <v>512</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
+      <c r="P64" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>3</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>513</v>
+      </c>
+      <c r="X64" t="s">
+        <v>514</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>516</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>517</v>
+      </c>
+      <c r="J65" t="s">
+        <v>518</v>
+      </c>
+      <c r="K65" t="s">
+        <v>519</v>
+      </c>
+      <c r="L65" t="s">
+        <v>520</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>496</v>
+      </c>
+      <c r="O65" t="s">
+        <v>81</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>521</v>
+      </c>
+      <c r="X65" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>524</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>525</v>
+      </c>
+      <c r="J66" t="s">
+        <v>526</v>
+      </c>
+      <c r="K66" t="s">
+        <v>527</v>
+      </c>
+      <c r="L66" t="s">
+        <v>528</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s"/>
+      <c r="O66" t="s"/>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>529</v>
+      </c>
+      <c r="X66" t="s">
+        <v>530</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>532</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>533</v>
+      </c>
+      <c r="J67" t="s">
+        <v>534</v>
+      </c>
+      <c r="K67" t="s">
+        <v>535</v>
+      </c>
+      <c r="L67" t="s">
+        <v>536</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>537</v>
+      </c>
+      <c r="O67" t="s">
+        <v>104</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>538</v>
+      </c>
+      <c r="X67" t="s">
+        <v>539</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>541</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>542</v>
+      </c>
+      <c r="J68" t="s">
+        <v>543</v>
+      </c>
+      <c r="K68" t="s">
+        <v>544</v>
+      </c>
+      <c r="L68" t="s">
+        <v>545</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>537</v>
+      </c>
+      <c r="O68" t="s">
+        <v>81</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>546</v>
+      </c>
+      <c r="X68" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>549</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>550</v>
+      </c>
+      <c r="J69" t="s">
+        <v>551</v>
+      </c>
+      <c r="K69" t="s">
+        <v>552</v>
+      </c>
+      <c r="L69" t="s">
+        <v>553</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>537</v>
+      </c>
+      <c r="O69" t="s">
+        <v>71</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>546</v>
+      </c>
+      <c r="X69" t="s">
+        <v>547</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>555</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>556</v>
+      </c>
+      <c r="J70" t="s">
+        <v>557</v>
+      </c>
+      <c r="K70" t="s">
+        <v>558</v>
+      </c>
+      <c r="L70" t="s">
+        <v>559</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1</v>
+      </c>
+      <c r="N70" t="s">
+        <v>560</v>
+      </c>
+      <c r="O70" t="s">
+        <v>71</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>1</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>561</v>
+      </c>
+      <c r="X70" t="s">
+        <v>562</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>564</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>565</v>
+      </c>
+      <c r="J71" t="s">
+        <v>566</v>
+      </c>
+      <c r="K71" t="s">
+        <v>567</v>
+      </c>
+      <c r="L71" t="s">
+        <v>568</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>569</v>
+      </c>
+      <c r="X71" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>572</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>573</v>
+      </c>
+      <c r="J72" t="s">
+        <v>574</v>
+      </c>
+      <c r="K72" t="s">
+        <v>575</v>
+      </c>
+      <c r="L72" t="s">
+        <v>576</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>577</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>578</v>
+      </c>
+      <c r="X72" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>581</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>582</v>
+      </c>
+      <c r="J73" t="s">
+        <v>583</v>
+      </c>
+      <c r="K73" t="s">
+        <v>584</v>
+      </c>
+      <c r="L73" t="s">
+        <v>585</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>586</v>
+      </c>
+      <c r="O73" t="s">
+        <v>71</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>587</v>
+      </c>
+      <c r="X73" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>590</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>591</v>
+      </c>
+      <c r="J74" t="s">
+        <v>592</v>
+      </c>
+      <c r="K74" t="s">
+        <v>593</v>
+      </c>
+      <c r="L74" t="s">
+        <v>594</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>595</v>
+      </c>
+      <c r="O74" t="s">
+        <v>104</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>596</v>
+      </c>
+      <c r="X74" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>599</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>600</v>
+      </c>
+      <c r="J75" t="s">
+        <v>601</v>
+      </c>
+      <c r="K75" t="s">
+        <v>602</v>
+      </c>
+      <c r="L75" t="s">
+        <v>603</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>604</v>
+      </c>
+      <c r="O75" t="s">
+        <v>71</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>605</v>
+      </c>
+      <c r="X75" t="s">
+        <v>606</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>608</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>609</v>
+      </c>
+      <c r="J76" t="s">
+        <v>610</v>
+      </c>
+      <c r="K76" t="s">
+        <v>611</v>
+      </c>
+      <c r="L76" t="s">
+        <v>612</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35320</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>613</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>614</v>
+      </c>
+      <c r="J77" t="s">
+        <v>615</v>
+      </c>
+      <c r="K77" t="s">
+        <v>616</v>
+      </c>
+      <c r="L77" t="s">
+        <v>617</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s"/>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
